--- a/data/20212022matchdata.xlsx
+++ b/data/20212022matchdata.xlsx
@@ -16,15 +16,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="257">
   <x:si>
+    <x:t>조지아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폴란드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파울수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크로스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상대팀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코소보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안도라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분석팀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>턴오버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스웨덴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독일</x:t>
+  </x:si>
+  <x:si>
     <x:t>롱패스</x:t>
   </x:si>
   <x:si>
-    <x:t>조지아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스웨덴</x:t>
-  </x:si>
-  <x:si>
     <x:t>국가</x:t>
   </x:si>
   <x:si>
@@ -34,216 +61,570 @@
     <x:t>슛차단</x:t>
   </x:si>
   <x:si>
-    <x:t>파울수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>턴오버</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분석팀</x:t>
+    <x:t>프랑스</x:t>
   </x:si>
   <x:si>
     <x:t>그리스</x:t>
   </x:si>
   <x:si>
-    <x:t>크로스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프랑스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상대팀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코소보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안도라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폴란드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독일</x:t>
+    <x:t>터키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체코</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>덴마크</x:t>
   </x:si>
   <x:si>
     <x:t>코너킥</x:t>
   </x:si>
   <x:si>
+    <x:t>스위스</x:t>
+  </x:si>
+  <x:si>
     <x:t>숏패스</x:t>
   </x:si>
   <x:si>
+    <x:t>핀란드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
     <x:t>벨기에</x:t>
   </x:si>
   <x:si>
+    <x:t>멘마크</x:t>
+  </x:si>
+  <x:si>
     <x:t>헝가리</x:t>
   </x:si>
   <x:si>
-    <x:t>덴마크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>백패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스위스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>핀란드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멘마크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>터키</x:t>
-  </x:si>
-  <x:si>
     <x:t>스페인</x:t>
   </x:si>
   <x:si>
-    <x:t>체코</x:t>
+    <x:t>71,72,79,80,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,88,94,111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,21,31,53,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33,45+1,52,82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,72,73,79,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,13,17,69,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,70,80,,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72,77,78,88,102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64,83,84,90+2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,67,68,79,84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>707,4,99,120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64,83,84,90+3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17,40,59,79,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,18,28,33,46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,56,57,67,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,45+3,50,64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,20,22,23,49,76,80,86,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,15,35,45,52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,12,32,55,59,75,84,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,54,76,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,64,72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보스니아 헤르체고비나</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,52,66,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67,80,90,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,68,79,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,69,70,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23,46,79,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64,75,87,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57,76,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,61,78,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60,73,84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59,82,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57,59,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65,76,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52,67,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59,69,70,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,81,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박스바깥슈팅비율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드리블 돌파시도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격진영향한패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,59,60,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,24,56,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56,57,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77,91,93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공중볼 경합승리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,65,81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격진영 공중볼 경합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수비진영 공중볼 경합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72,75,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수비진영향한패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격권 박탈횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,73,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68,87,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드리블 돌파성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,65,73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59,60,73,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35,39,51,60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,65,72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62.63,73,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61,74,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,60,61,74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58,67,82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60,73,82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34,36,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60,61,71,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50,70,73,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71,79,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,62,79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58,59,72,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,72,18,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67,85,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65,66,74,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,25,41,63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84,87,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69,82,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66,71,77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55,63,69,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,72,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61,68,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57,65,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69,78,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64,75,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,56,68,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68,79,91,92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,61,72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,17,46,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,60,61,73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72,73,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,46,50,63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57,65,73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20,85,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63,70,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71,82,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63,73,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63,70,81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69,95,106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86,89,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59,72,78,79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65,79,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41,68,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71,81,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,63,75,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84,87,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,62,73,82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64,83,84,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,42,93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55,70,78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45+1,50,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26,31,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,71,78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72,73,85,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,58,64,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37,66,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73,78,79,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61,78,79,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,62,74,82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68,80,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67,77,84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65,73,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,62,72,81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,35,39,68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38,57,76,100,103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30,45+2,56,67,71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62,70,85,106,109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,45+3,51,68,69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,15,27,31,39,42,58,69,78,79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45+1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알바니아</x:t>
   </x:si>
   <x:si>
     <x:t>33,38</x:t>
   </x:si>
   <x:si>
+    <x:t>북마케도니아</x:t>
+  </x:si>
+  <x:si>
     <x:t>41,77</x:t>
   </x:si>
   <x:si>
+    <x:t>45+2,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,45+2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슬로바키아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182,3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24,75</x:t>
+  </x:si>
+  <x:si>
     <x:t>스코틀랜드</x:t>
   </x:si>
   <x:si>
-    <x:t>182,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24,75</x:t>
-  </x:si>
-  <x:si>
     <x:t>33,90</x:t>
   </x:si>
   <x:si>
-    <x:t>7,45+2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45+1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45+2,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알바니아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북마케도니아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슬로바키아</x:t>
-  </x:si>
-  <x:si>
     <x:t>71,81</x:t>
   </x:si>
   <x:si>
+    <x:t>19,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크로아티아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미들필드존패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실점시간</x:t>
+  </x:si>
+  <x:si>
     <x:t>46,63</x:t>
   </x:si>
   <x:si>
-    <x:t>19,85</x:t>
-  </x:si>
-  <x:si>
     <x:t>6,57</x:t>
   </x:si>
   <x:si>
-    <x:t>크로아티아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미들필드존패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실점시간</x:t>
-  </x:si>
-  <x:si>
     <x:t>유효슈팅</x:t>
   </x:si>
   <x:si>
     <x:t>38,63</x:t>
   </x:si>
   <x:si>
+    <x:t>56,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크로스차단</x:t>
+  </x:si>
+  <x:si>
     <x:t>산마리노</x:t>
   </x:si>
   <x:si>
+    <x:t>24,58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리히텐슈타인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33,39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>득점시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66,84</x:t>
+  </x:si>
+  <x:si>
     <x:t>63,74</x:t>
   </x:si>
   <x:si>
-    <x:t>56,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33,39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크로스차단</x:t>
-  </x:si>
-  <x:si>
     <x:t>32,88</x:t>
   </x:si>
   <x:si>
-    <x:t>24,58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리히텐슈타인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>득점시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66,84</x:t>
+    <x:t>후반득점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인터셉트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연령</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오프사이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31,60</x:t>
   </x:si>
   <x:si>
     <x:t>89,94</x:t>
   </x:si>
   <x:si>
+    <x:t>75,86</x:t>
+  </x:si>
+  <x:si>
     <x:t>경고횟수</x:t>
   </x:si>
   <x:si>
-    <x:t>31,60</x:t>
+    <x:t>45+1,47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>후반실점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우측공격비율</x:t>
   </x:si>
   <x:si>
     <x:t>69,88</x:t>
   </x:si>
   <x:si>
-    <x:t>교체시간</x:t>
-  </x:si>
-  <x:si>
     <x:t>56,65</x:t>
   </x:si>
   <x:si>
-    <x:t>75,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45+1,47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>후반실점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연령</x:t>
-  </x:si>
-  <x:si>
-    <x:t>후반득점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우측공격비율</x:t>
-  </x:si>
-  <x:si>
     <x:t>좌향패스</x:t>
   </x:si>
   <x:si>
-    <x:t>인터셉트</x:t>
-  </x:si>
-  <x:si>
     <x:t>좌측공격비율</x:t>
   </x:si>
   <x:si>
@@ -253,55 +634,73 @@
     <x:t>슈팅시도</x:t>
   </x:si>
   <x:si>
-    <x:t>오프사이드</x:t>
+    <x:t xml:space="preserve">프랑스 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>피파랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전반실점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패스횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클리어링</x:t>
   </x:si>
   <x:si>
     <x:t>태클시도</x:t>
   </x:si>
   <x:si>
-    <x:t>클리어링</x:t>
+    <x:t>포메이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유효 슈팅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퇴장횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포르투갈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이슬란드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>루마니아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전반득점</x:t>
   </x:si>
   <x:si>
     <x:t>잉글랜드</x:t>
   </x:si>
   <x:si>
-    <x:t>포메이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유효 슈팅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퇴장횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>루마니아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피파랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패스횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포르투갈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이슬란드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전반실점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전반득점</x:t>
-  </x:si>
-  <x:si>
     <x:t>태클성공</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">프랑스 </x:t>
+    <x:t>78,90+3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골키퍼세이브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이탈리아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32,65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45+1,85</x:t>
   </x:si>
   <x:si>
     <x:t>평균신장</x:t>
@@ -310,481 +709,82 @@
     <x:t>전진패스</x:t>
   </x:si>
   <x:si>
+    <x:t>15,67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카자스탄</x:t>
+  </x:si>
+  <x:si>
     <x:t>52,81</x:t>
   </x:si>
   <x:si>
     <x:t>우향패스</x:t>
   </x:si>
   <x:si>
-    <x:t>골키퍼세이브</x:t>
+    <x:t>세트피스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66,76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>볼점유율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7,56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74,87</x:t>
   </x:si>
   <x:si>
     <x:t>패스성공횟수</x:t>
   </x:si>
   <x:si>
-    <x:t>세트피스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66,76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>볼점유율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,7,56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74,87</x:t>
-  </x:si>
-  <x:si>
     <x:t>19,44</x:t>
   </x:si>
   <x:si>
-    <x:t>78,90+3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이탈리아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32,65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45+1,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카자스탄</x:t>
+    <x:t>아제르바이잔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>룩셈부르크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62,79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르메니아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63,77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아일랜드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89,95</x:t>
   </x:si>
   <x:si>
     <x:t>오스트리아</x:t>
   </x:si>
   <x:si>
+    <x:t>25,53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우크라이나</x:t>
+  </x:si>
+  <x:si>
     <x:t>63,79</x:t>
   </x:si>
   <x:si>
-    <x:t>68,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63,77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62,79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>룩셈부르크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르메니아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아일랜드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우크라이나</x:t>
-  </x:si>
-  <x:si>
     <x:t>세르비아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89,95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25,53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아제르바이잔</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,20,22,23,49,76,80,86,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,21,31,53,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,88,94,111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>707,4,99,120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17,40,59,79,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,18,28,33,46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72,77,78,88,102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16,70,80,,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,67,68,79,84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,45+3,50,64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33,45+1,52,82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,72,73,79,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,13,17,69,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71,72,79,80,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64,83,84,90+2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,56,57,67,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64,83,84,90+3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62,70,85,106,109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38,57,76,100,103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30,45+2,56,67,71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,45+3,51,68,69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,54,76,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,52,66,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,61,78,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67,80,90,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스니아 헤르체고비나</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59,82,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65,76,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52,67,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,68,79,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60,73,84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57,59,75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59,69,70,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,64,72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,69,70,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57,76,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64,75,87,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23,46,79,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,73,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,65,81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격진영향한패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수비진영 공중볼 경합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박스바깥슈팅비율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72,75,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드리블 돌파시도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56,57,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공중볼 경합승리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격진영 공중볼 경합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77,91,93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수비진영향한패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,24,56,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격권 박탈횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,81,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,59,60,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68,87,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35,39,51,60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58,67,82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,15,35,445</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50,70,73,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60,73,82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71,79,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드리블 돌파성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,65,72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,65,73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59,60,73,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62.63,73,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34,36,75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60,61,71,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61,74,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,60,61,74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69,78,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,56,68,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57,65,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55,63,69,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18,72,18,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67,85,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84,87,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,72,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69,82,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64,75,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,62,79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58,59,72,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65,66,74,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,25,41,63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66,71,77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61,68,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86,89,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72,73,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,46,50,63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59,72,78,79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,17,46,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63,70,81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,61,72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63,73,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69,95,106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65,79,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68,79,91,92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,60,61,73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71,82,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57,65,73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20,85,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63,70,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37,66,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,42,93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26,31,75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,71,78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55,70,78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,62,73,82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61,78,79,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72,73,85,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45+1,50,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,58,64,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73,78,79,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71,81,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84,87,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64,83,84,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41,68,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,63,75,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,62,72,81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67,77,84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,62,74,82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,35,39,68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68,80,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65,73,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,12,32,55,59,75,84,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,15,27,31,39,42,58,69,78,79</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1034,19 +1034,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1080,6 +1067,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1740,8 +1740,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:BJ103"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B1" activeCellId="0" sqref="B1:B1048576"/>
+    <x:sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="AL22" activeCellId="0" sqref="AL22:AL22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1787,258 +1787,258 @@
   <x:sheetData>
     <x:row r="1" spans="1:62">
       <x:c r="A1" s="1"/>
-      <x:c r="B1" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C1" s="11"/>
-      <x:c r="D1" s="11"/>
-      <x:c r="E1" s="11"/>
-      <x:c r="F1" s="11"/>
-      <x:c r="G1" s="11"/>
-      <x:c r="H1" s="11"/>
-      <x:c r="I1" s="11"/>
-      <x:c r="J1" s="11"/>
-      <x:c r="K1" s="11"/>
-      <x:c r="L1" s="11"/>
-      <x:c r="M1" s="11"/>
-      <x:c r="N1" s="11"/>
-      <x:c r="O1" s="11"/>
-      <x:c r="P1" s="11"/>
-      <x:c r="Q1" s="11"/>
-      <x:c r="R1" s="11"/>
-      <x:c r="S1" s="11"/>
-      <x:c r="T1" s="11"/>
-      <x:c r="U1" s="11"/>
-      <x:c r="V1" s="11"/>
-      <x:c r="W1" s="11"/>
-      <x:c r="X1" s="11"/>
-      <x:c r="Y1" s="11"/>
-      <x:c r="Z1" s="11"/>
-      <x:c r="AA1" s="11"/>
-      <x:c r="AB1" s="11"/>
-      <x:c r="AC1" s="11"/>
-      <x:c r="AD1" s="11"/>
-      <x:c r="AE1" s="11"/>
-      <x:c r="AF1" s="11"/>
-      <x:c r="AG1" s="11"/>
-      <x:c r="AH1" s="11"/>
-      <x:c r="AI1" s="11"/>
-      <x:c r="AJ1" s="11"/>
-      <x:c r="AK1" s="11"/>
-      <x:c r="AL1" s="11"/>
-      <x:c r="AM1" s="11"/>
-      <x:c r="AN1" s="11"/>
-      <x:c r="AO1" s="11"/>
-      <x:c r="AP1" s="11"/>
-      <x:c r="AQ1" s="11"/>
-      <x:c r="AR1" s="11"/>
-      <x:c r="AS1" s="11"/>
-      <x:c r="AT1" s="11"/>
-      <x:c r="AU1" s="11"/>
-      <x:c r="AV1" s="11"/>
-      <x:c r="AW1" s="11"/>
-      <x:c r="AX1" s="11"/>
-      <x:c r="AY1" s="11"/>
-      <x:c r="AZ1" s="11"/>
-      <x:c r="BA1" s="11"/>
-      <x:c r="BB1" s="11"/>
-      <x:c r="BC1" s="11" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BD1" s="11"/>
-      <x:c r="BE1" s="11"/>
-      <x:c r="BF1" s="11"/>
-      <x:c r="BG1" s="11"/>
-      <x:c r="BH1" s="11"/>
-      <x:c r="BI1" s="11"/>
-      <x:c r="BJ1" s="11"/>
+      <x:c r="B1" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14"/>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14"/>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14"/>
+      <x:c r="K1" s="14"/>
+      <x:c r="L1" s="14"/>
+      <x:c r="M1" s="14"/>
+      <x:c r="N1" s="14"/>
+      <x:c r="O1" s="14"/>
+      <x:c r="P1" s="14"/>
+      <x:c r="Q1" s="14"/>
+      <x:c r="R1" s="14"/>
+      <x:c r="S1" s="14"/>
+      <x:c r="T1" s="14"/>
+      <x:c r="U1" s="14"/>
+      <x:c r="V1" s="14"/>
+      <x:c r="W1" s="14"/>
+      <x:c r="X1" s="14"/>
+      <x:c r="Y1" s="14"/>
+      <x:c r="Z1" s="14"/>
+      <x:c r="AA1" s="14"/>
+      <x:c r="AB1" s="14"/>
+      <x:c r="AC1" s="14"/>
+      <x:c r="AD1" s="14"/>
+      <x:c r="AE1" s="14"/>
+      <x:c r="AF1" s="14"/>
+      <x:c r="AG1" s="14"/>
+      <x:c r="AH1" s="14"/>
+      <x:c r="AI1" s="14"/>
+      <x:c r="AJ1" s="14"/>
+      <x:c r="AK1" s="14"/>
+      <x:c r="AL1" s="14"/>
+      <x:c r="AM1" s="14"/>
+      <x:c r="AN1" s="14"/>
+      <x:c r="AO1" s="14"/>
+      <x:c r="AP1" s="14"/>
+      <x:c r="AQ1" s="14"/>
+      <x:c r="AR1" s="14"/>
+      <x:c r="AS1" s="14"/>
+      <x:c r="AT1" s="14"/>
+      <x:c r="AU1" s="14"/>
+      <x:c r="AV1" s="14"/>
+      <x:c r="AW1" s="14"/>
+      <x:c r="AX1" s="14"/>
+      <x:c r="AY1" s="14"/>
+      <x:c r="AZ1" s="14"/>
+      <x:c r="BA1" s="14"/>
+      <x:c r="BB1" s="14"/>
+      <x:c r="BC1" s="14" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="BD1" s="14"/>
+      <x:c r="BE1" s="14"/>
+      <x:c r="BF1" s="14"/>
+      <x:c r="BG1" s="14"/>
+      <x:c r="BH1" s="14"/>
+      <x:c r="BI1" s="14"/>
+      <x:c r="BJ1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:62">
       <x:c r="A2" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="M2" s="1" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="N2" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="O2" s="1" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="P2" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="Q2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
+      <x:c r="R2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="S2" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="T2" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="U2" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="V2" s="1" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="W2" s="1" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="X2" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="Y2" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="Z2" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="AA2" s="3" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="AB2" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="AC2" s="1" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I2" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="J2" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="K2" s="1" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="L2" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="M2" s="1" t="s">
+      <x:c r="AD2" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AE2" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="AF2" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="N2" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="O2" s="1" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="P2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="Q2" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="R2" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S2" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="T2" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="U2" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="V2" s="1" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="W2" s="1" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="X2" s="1" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="Y2" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="Z2" s="1" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="AA2" s="3" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="AB2" s="1" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="AC2" s="1" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="AD2" s="1" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="AE2" s="1" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="AF2" s="1" t="s">
-        <x:v>172</x:v>
-      </x:c>
       <x:c r="AG2" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="AH2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AI2" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="AJ2" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="AK2" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="AL2" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="AM2" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="AN2" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="AO2" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="AP2" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="AQ2" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="AR2" s="1" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="AS2" s="1" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="AT2" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="AU2" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AV2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="AW2" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="AX2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="AY2" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="AZ2" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="BA2" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="BB2" s="1" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="BC2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="BD2" s="1" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="BE2" s="1" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="BF2" s="1" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="BG2" s="1" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AS2" s="1" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="AT2" s="1" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="AU2" s="1" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AV2" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="AW2" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AX2" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="AY2" s="1" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="AZ2" s="1" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="BA2" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="BB2" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="BC2" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD2" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="BE2" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="BF2" s="1" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="BG2" s="1" t="s">
-        <x:v>182</x:v>
-      </x:c>
       <x:c r="BH2" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="BI2" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="BJ2" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:62">
@@ -2046,7 +2046,7 @@
         <x:v>44280</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="1">
         <x:v>13</x:v>
@@ -2067,14 +2067,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="J3" s="1"/>
       <x:c r="K3" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L3" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M3" s="1">
         <x:v>13</x:v>
@@ -2203,7 +2203,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="BC3" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="BD3" s="1">
         <x:v>46</x:v>
@@ -2232,7 +2232,7 @@
         <x:v>44283</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="1">
         <x:v>13</x:v>
@@ -2260,7 +2260,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L4" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="M4" s="1">
         <x:v>15</x:v>
@@ -2389,7 +2389,7 @@
         <x:v>185.40000000000001</x:v>
       </x:c>
       <x:c r="BC4" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="BD4" s="1">
         <x:v>37</x:v>
@@ -2418,7 +2418,7 @@
         <x:v>44286</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1">
         <x:v>13</x:v>
@@ -2442,13 +2442,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="J5" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="K5" s="1">
         <x:v>3</x:v>
       </x:c>
       <x:c r="L5" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M5" s="1">
         <x:v>10</x:v>
@@ -2577,7 +2577,7 @@
         <x:v>183.80000000000001</x:v>
       </x:c>
       <x:c r="BC5" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="BD5" s="1">
         <x:v>65</x:v>
@@ -2606,7 +2606,7 @@
         <x:v>44362</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="1">
         <x:v>12</x:v>
@@ -2634,7 +2634,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="M6" s="1">
         <x:v>5</x:v>
@@ -2763,7 +2763,7 @@
         <x:v>185.5</x:v>
       </x:c>
       <x:c r="BC6" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="BD6" s="1">
         <x:v>4</x:v>
@@ -2792,7 +2792,7 @@
         <x:v>44366</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1">
         <x:v>12</x:v>
@@ -2813,16 +2813,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J7" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="K7" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L7" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="M7" s="1">
         <x:v>10</x:v>
@@ -2951,7 +2951,7 @@
         <x:v>185.5</x:v>
       </x:c>
       <x:c r="BC7" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="BD7" s="1">
         <x:v>9</x:v>
@@ -2980,7 +2980,7 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1">
         <x:v>12</x:v>
@@ -3001,14 +3001,14 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I8" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="J8" s="1"/>
       <x:c r="K8" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L8" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="M8" s="1">
         <x:v>12</x:v>
@@ -3137,7 +3137,7 @@
         <x:v>185.80000000000001</x:v>
       </x:c>
       <x:c r="BC8" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="BD8" s="1">
         <x:v>37</x:v>
@@ -3166,7 +3166,7 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="1">
         <x:v>12</x:v>
@@ -3188,13 +3188,13 @@
       </x:c>
       <x:c r="I9" s="1"/>
       <x:c r="J9" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="K9" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L9" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M9" s="1">
         <x:v>6</x:v>
@@ -3323,7 +3323,7 @@
         <x:v>186.30000000000001</x:v>
       </x:c>
       <x:c r="BC9" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="BD9" s="1">
         <x:v>4</x:v>
@@ -3352,7 +3352,7 @@
         <x:v>44441</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1">
         <x:v>16</x:v>
@@ -3373,14 +3373,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J10" s="1"/>
       <x:c r="K10" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L10" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M10" s="1">
         <x:v>21</x:v>
@@ -3509,7 +3509,7 @@
         <x:v>185.5</x:v>
       </x:c>
       <x:c r="BC10" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="BD10" s="1">
         <x:v>189</x:v>
@@ -3538,7 +3538,7 @@
         <x:v>44444</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1">
         <x:v>16</x:v>
@@ -3559,14 +3559,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J11" s="1"/>
       <x:c r="K11" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L11" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="M11" s="1">
         <x:v>17</x:v>
@@ -3695,7 +3695,7 @@
         <x:v>183.80000000000001</x:v>
       </x:c>
       <x:c r="BC11" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="BD11" s="1">
         <x:v>88</x:v>
@@ -3724,7 +3724,7 @@
         <x:v>44447</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C12" s="1">
         <x:v>16</x:v>
@@ -3745,14 +3745,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I12" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J12" s="1"/>
       <x:c r="K12" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L12" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M12" s="1">
         <x:v>13</x:v>
@@ -3881,7 +3881,7 @@
         <x:v>183.80000000000001</x:v>
       </x:c>
       <x:c r="BC12" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="BD12" s="1">
         <x:v>53</x:v>
@@ -3910,7 +3910,7 @@
         <x:v>44477</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1">
         <x:v>14</x:v>
@@ -3931,7 +3931,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="J13" s="1">
         <x:v>9</x:v>
@@ -3940,7 +3940,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L13" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M13" s="1">
         <x:v>16</x:v>
@@ -4069,7 +4069,7 @@
         <x:v>184.5</x:v>
       </x:c>
       <x:c r="BC13" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="BD13" s="1">
         <x:v>42</x:v>
@@ -4098,7 +4098,7 @@
         <x:v>44480</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1">
         <x:v>14</x:v>
@@ -4119,14 +4119,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="J14" s="1"/>
       <x:c r="K14" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L14" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="M14" s="1">
         <x:v>14</x:v>
@@ -4255,7 +4255,7 @@
         <x:v>184.5</x:v>
       </x:c>
       <x:c r="BC14" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="BD14" s="1">
         <x:v>74</x:v>
@@ -4284,7 +4284,7 @@
         <x:v>44511</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1">
         <x:v>12</x:v>
@@ -4305,14 +4305,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I15" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J15" s="1"/>
       <x:c r="K15" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L15" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M15" s="1">
         <x:v>35</x:v>
@@ -4441,7 +4441,7 @@
         <x:v>183.90000000000001</x:v>
       </x:c>
       <x:c r="BC15" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="BD15" s="1">
         <x:v>190</x:v>
@@ -4470,7 +4470,7 @@
         <x:v>44514</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1">
         <x:v>12</x:v>
@@ -4491,7 +4491,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J16" s="1">
         <x:v>59</x:v>
@@ -4500,7 +4500,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M16" s="1">
         <x:v>13</x:v>
@@ -4629,7 +4629,7 @@
         <x:v>185.59999999999999</x:v>
       </x:c>
       <x:c r="BC16" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="BD16" s="1">
         <x:v>89</x:v>
@@ -4658,7 +4658,7 @@
         <x:v>44716</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1">
         <x:v>12</x:v>
@@ -4688,7 +4688,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L17" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="M17" s="1">
         <x:v>12</x:v>
@@ -4817,7 +4817,7 @@
         <x:v>184.09999999999999</x:v>
       </x:c>
       <x:c r="BC17" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="BD17" s="1">
         <x:v>6</x:v>
@@ -4846,7 +4846,7 @@
         <x:v>44719</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C18" s="1">
         <x:v>12</x:v>
@@ -4876,7 +4876,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L18" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M18" s="1">
         <x:v>7</x:v>
@@ -5005,7 +5005,7 @@
         <x:v>185.59999999999999</x:v>
       </x:c>
       <x:c r="BC18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="BD18" s="1">
         <x:v>5</x:v>
@@ -5034,7 +5034,7 @@
         <x:v>44723</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1">
         <x:v>12</x:v>
@@ -5064,7 +5064,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L19" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M19" s="1">
         <x:v>4</x:v>
@@ -5193,7 +5193,7 @@
         <x:v>185.40000000000001</x:v>
       </x:c>
       <x:c r="BC19" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="BD19" s="1">
         <x:v>40</x:v>
@@ -5222,7 +5222,7 @@
         <x:v>44726</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1">
         <x:v>12</x:v>
@@ -5243,16 +5243,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J20" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="K20" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L20" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M20" s="1">
         <x:v>11</x:v>
@@ -5381,7 +5381,7 @@
         <x:v>185.90000000000001</x:v>
       </x:c>
       <x:c r="BC20" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="BD20" s="1">
         <x:v>6</x:v>
@@ -5410,7 +5410,7 @@
         <x:v>44827</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="1">
         <x:v>11</x:v>
@@ -5438,7 +5438,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L21" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="M21" s="1">
         <x:v>8</x:v>
@@ -5516,7 +5516,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="AL21" s="1">
-        <x:v>3</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="AM21" s="1">
         <x:v>41</x:v>
@@ -5567,7 +5567,7 @@
         <x:v>184.19999999999999</x:v>
       </x:c>
       <x:c r="BC21" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="BD21" s="1">
         <x:v>37</x:v>
@@ -5596,7 +5596,7 @@
         <x:v>44830</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1">
         <x:v>11</x:v>
@@ -5617,16 +5617,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J22" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K22" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L22" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M22" s="1">
         <x:v>8</x:v>
@@ -5752,10 +5752,10 @@
         <x:v>26.399999999999999</x:v>
       </x:c>
       <x:c r="BB22" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="BC22" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="BD22" s="1">
         <x:v>5</x:v>
@@ -5780,11 +5780,11 @@
       </x:c>
     </x:row>
     <x:row r="23" spans="1:62" s="1" customFormat="1">
-      <x:c r="A23" s="12">
+      <x:c r="A23" s="11">
         <x:v>44279</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C23" s="1">
         <x:v>2</x:v>
@@ -5814,7 +5814,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="M23" s="1">
         <x:v>13</x:v>
@@ -5943,7 +5943,7 @@
         <x:v>184.09999999999999</x:v>
       </x:c>
       <x:c r="BC23" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="BD23" s="1">
         <x:v>24</x:v>
@@ -5968,11 +5968,11 @@
       </x:c>
     </x:row>
     <x:row r="24" spans="1:62" s="1" customFormat="1">
-      <x:c r="A24" s="12">
+      <x:c r="A24" s="11">
         <x:v>44283</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C24" s="1">
         <x:v>2</x:v>
@@ -5993,13 +5993,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="K24" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L24" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="M24" s="1">
         <x:v>10</x:v>
@@ -6128,7 +6128,7 @@
         <x:v>183.5</x:v>
       </x:c>
       <x:c r="BC24" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="BD24" s="1">
         <x:v>122</x:v>
@@ -6153,11 +6153,11 @@
       </x:c>
     </x:row>
     <x:row r="25" spans="1:62" s="1" customFormat="1">
-      <x:c r="A25" s="12">
+      <x:c r="A25" s="11">
         <x:v>44286</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C25" s="1">
         <x:v>2</x:v>
@@ -6184,7 +6184,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L25" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="M25" s="1">
         <x:v>4</x:v>
@@ -6313,7 +6313,7 @@
         <x:v>183.90000000000001</x:v>
       </x:c>
       <x:c r="BC25" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="BD25" s="1">
         <x:v>56</x:v>
@@ -6342,7 +6342,7 @@
         <x:v>44362</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C26" s="1">
         <x:v>2</x:v>
@@ -6370,7 +6370,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L26" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="M26" s="1">
         <x:v>3</x:v>
@@ -6499,7 +6499,7 @@
         <x:v>182.69999999999999</x:v>
       </x:c>
       <x:c r="BC26" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="BD26" s="1">
         <x:v>12</x:v>
@@ -6528,7 +6528,7 @@
         <x:v>44366</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C27" s="1">
         <x:v>2</x:v>
@@ -6552,13 +6552,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="J27" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="K27" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L27" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M27" s="1">
         <x:v>13</x:v>
@@ -6687,7 +6687,7 @@
         <x:v>183.40000000000001</x:v>
       </x:c>
       <x:c r="BC27" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="BD27" s="1">
         <x:v>37</x:v>
@@ -6716,7 +6716,7 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C28" s="1">
         <x:v>2</x:v>
@@ -6737,16 +6737,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I28" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J28" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="K28" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L28" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M28" s="1">
         <x:v>10</x:v>
@@ -6875,7 +6875,7 @@
         <x:v>182.19999999999999</x:v>
       </x:c>
       <x:c r="BC28" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="BD28" s="1">
         <x:v>5</x:v>
@@ -6900,11 +6900,11 @@
       </x:c>
     </x:row>
     <x:row r="29" spans="1:62">
-      <x:c r="A29" s="12">
+      <x:c r="A29" s="11">
         <x:v>44375</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C29" s="1">
         <x:v>2</x:v>
@@ -6925,16 +6925,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I29" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J29" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="K29" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L29" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M29" s="1">
         <x:v>22</x:v>
@@ -7063,7 +7063,7 @@
         <x:v>183.5</x:v>
       </x:c>
       <x:c r="BC29" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="BD29" s="1">
         <x:v>13</x:v>
@@ -7088,11 +7088,11 @@
       </x:c>
     </x:row>
     <x:row r="30" spans="1:62">
-      <x:c r="A30" s="12">
+      <x:c r="A30" s="11">
         <x:v>44715</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C30" s="1">
         <x:v>3</x:v>
@@ -7116,13 +7116,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="J30" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="K30" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L30" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M30" s="1">
         <x:v>15</x:v>
@@ -7251,7 +7251,7 @@
         <x:v>182.59999999999999</x:v>
       </x:c>
       <x:c r="BC30" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="BD30" s="1">
         <x:v>11</x:v>
@@ -7276,11 +7276,11 @@
       </x:c>
     </x:row>
     <x:row r="31" spans="1:62">
-      <x:c r="A31" s="12">
+      <x:c r="A31" s="11">
         <x:v>44718</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C31" s="1">
         <x:v>3</x:v>
@@ -7310,7 +7310,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L31" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="M31" s="1">
         <x:v>7</x:v>
@@ -7439,7 +7439,7 @@
         <x:v>183.90000000000001</x:v>
       </x:c>
       <x:c r="BC31" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="BD31" s="1">
         <x:v>16</x:v>
@@ -7464,11 +7464,11 @@
       </x:c>
     </x:row>
     <x:row r="32" spans="1:62">
-      <x:c r="A32" s="12">
+      <x:c r="A32" s="11">
         <x:v>44722</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C32" s="1">
         <x:v>3</x:v>
@@ -7498,7 +7498,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L32" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="M32" s="1">
         <x:v>8</x:v>
@@ -7627,7 +7627,7 @@
         <x:v>180.90000000000001</x:v>
       </x:c>
       <x:c r="BC32" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="BD32" s="1">
         <x:v>34</x:v>
@@ -7652,11 +7652,11 @@
       </x:c>
     </x:row>
     <x:row r="33" spans="1:62">
-      <x:c r="A33" s="12">
+      <x:c r="A33" s="11">
         <x:v>44725</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="1">
         <x:v>3</x:v>
@@ -7684,7 +7684,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L33" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M33" s="1">
         <x:v>12</x:v>
@@ -7813,7 +7813,7 @@
         <x:v>181.30000000000001</x:v>
       </x:c>
       <x:c r="BC33" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="BD33" s="1">
         <x:v>16</x:v>
@@ -7838,11 +7838,11 @@
       </x:c>
     </x:row>
     <x:row r="34" spans="1:62" s="1" customFormat="1">
-      <x:c r="A34" s="12">
+      <x:c r="A34" s="11">
         <x:v>44440</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C34" s="1">
         <x:v>4</x:v>
@@ -7872,7 +7872,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L34" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M34" s="1">
         <x:v>2</x:v>
@@ -8001,7 +8001,7 @@
         <x:v>181.5</x:v>
       </x:c>
       <x:c r="BC34" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="BD34" s="1">
         <x:v>57</x:v>
@@ -8026,11 +8026,11 @@
       </x:c>
     </x:row>
     <x:row r="35" spans="1:62" s="1" customFormat="1">
-      <x:c r="A35" s="12">
+      <x:c r="A35" s="11">
         <x:v>44443</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C35" s="1">
         <x:v>4</x:v>
@@ -8060,7 +8060,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L35" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="M35" s="1">
         <x:v>13</x:v>
@@ -8189,7 +8189,7 @@
         <x:v>183.5</x:v>
       </x:c>
       <x:c r="BC35" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="BD35" s="1">
         <x:v>27</x:v>
@@ -8214,11 +8214,11 @@
       </x:c>
     </x:row>
     <x:row r="36" spans="1:62" s="1" customFormat="1">
-      <x:c r="A36" s="12">
+      <x:c r="A36" s="11">
         <x:v>44446</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C36" s="1">
         <x:v>4</x:v>
@@ -8239,13 +8239,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="K36" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L36" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M36" s="1">
         <x:v>15</x:v>
@@ -8399,11 +8399,11 @@
       </x:c>
     </x:row>
     <x:row r="37" spans="1:62">
-      <x:c r="A37" s="12">
+      <x:c r="A37" s="11">
         <x:v>44461</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C37" s="1">
         <x:v>4</x:v>
@@ -8424,14 +8424,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="J37" s="1"/>
       <x:c r="K37" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L37" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M37" s="1">
         <x:v>16</x:v>
@@ -8560,7 +8560,7 @@
         <x:v>184.80000000000001</x:v>
       </x:c>
       <x:c r="BC37" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="BD37" s="1">
         <x:v>33</x:v>
@@ -8585,11 +8585,11 @@
       </x:c>
     </x:row>
     <x:row r="38" spans="1:62">
-      <x:c r="A38" s="12">
+      <x:c r="A38" s="11">
         <x:v>44464</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C38" s="1">
         <x:v>4</x:v>
@@ -8611,13 +8611,13 @@
       </x:c>
       <x:c r="I38" s="7"/>
       <x:c r="J38" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="K38" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L38" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M38" s="1">
         <x:v>12</x:v>
@@ -8746,7 +8746,7 @@
         <x:v>186.30000000000001</x:v>
       </x:c>
       <x:c r="BC38" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="BD38" s="1">
         <x:v>10</x:v>
@@ -8771,11 +8771,11 @@
       </x:c>
     </x:row>
     <x:row r="39" spans="1:62" s="1" customFormat="1">
-      <x:c r="A39" s="12">
+      <x:c r="A39" s="11">
         <x:v>44513</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C39" s="1">
         <x:v>3</x:v>
@@ -8796,13 +8796,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K39" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L39" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M39" s="1">
         <x:v>13</x:v>
@@ -8931,7 +8931,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC39" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="BD39" s="1">
         <x:v>119</x:v>
@@ -8956,11 +8956,11 @@
       </x:c>
     </x:row>
     <x:row r="40" spans="1:62" s="1" customFormat="1">
-      <x:c r="A40" s="12">
+      <x:c r="A40" s="11">
         <x:v>44516</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C40" s="1">
         <x:v>3</x:v>
@@ -8981,13 +8981,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="K40" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L40" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M40" s="1">
         <x:v>8</x:v>
@@ -9141,11 +9141,11 @@
       </x:c>
     </x:row>
     <x:row r="41" spans="1:62" s="1" customFormat="1">
-      <x:c r="A41" s="13">
+      <x:c r="A41" s="12">
         <x:v>44279</x:v>
       </x:c>
       <x:c r="B41" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C41" s="1">
         <x:v>5</x:v>
@@ -9172,7 +9172,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L41" s="6" t="s">
-        <x:v>248</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="M41" s="1">
         <x:v>19</x:v>
@@ -9301,7 +9301,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC41" s="6" t="s">
-        <x:v>130</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="BD41" s="1">
         <x:v>108</x:v>
@@ -9326,11 +9326,11 @@
       </x:c>
     </x:row>
     <x:row r="42" spans="1:62" s="1" customFormat="1">
-      <x:c r="A42" s="13">
+      <x:c r="A42" s="12">
         <x:v>44282</x:v>
       </x:c>
       <x:c r="B42" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C42" s="1">
         <x:v>5</x:v>
@@ -9351,16 +9351,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I42" s="6" t="s">
-        <x:v>114</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="J42" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="K42" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L42" s="6" t="s">
-        <x:v>240</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="M42" s="1">
         <x:v>9</x:v>
@@ -9489,7 +9489,7 @@
         <x:v>181.59999999999999</x:v>
       </x:c>
       <x:c r="BC42" s="6" t="s">
-        <x:v>127</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="BD42" s="1">
         <x:v>30</x:v>
@@ -9514,11 +9514,11 @@
       </x:c>
     </x:row>
     <x:row r="43" spans="1:62" s="1" customFormat="1">
-      <x:c r="A43" s="13">
+      <x:c r="A43" s="12">
         <x:v>44285</x:v>
       </x:c>
       <x:c r="B43" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C43" s="1">
         <x:v>5</x:v>
@@ -9539,7 +9539,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I43" s="6" t="s">
-        <x:v>241</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="J43" s="1">
         <x:v>30</x:v>
@@ -9548,7 +9548,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L43" s="6" t="s">
-        <x:v>247</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="M43" s="1">
         <x:v>14</x:v>
@@ -9677,7 +9677,7 @@
         <x:v>181.80000000000001</x:v>
       </x:c>
       <x:c r="BC43" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="BD43" s="1">
         <x:v>98</x:v>
@@ -9702,11 +9702,11 @@
       </x:c>
     </x:row>
     <x:row r="44" spans="1:62" s="1" customFormat="1">
-      <x:c r="A44" s="13">
+      <x:c r="A44" s="12">
         <x:v>44362</x:v>
       </x:c>
       <x:c r="B44" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C44" s="1">
         <x:v>5</x:v>
@@ -9727,13 +9727,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I44" s="6" t="s">
-        <x:v>245</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="K44" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L44" s="6" t="s">
-        <x:v>244</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="M44" s="1">
         <x:v>8</x:v>
@@ -9862,7 +9862,7 @@
         <x:v>180.5</x:v>
       </x:c>
       <x:c r="BC44" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="BD44" s="1">
         <x:v>37</x:v>
@@ -9887,11 +9887,11 @@
       </x:c>
     </x:row>
     <x:row r="45" spans="1:62" s="1" customFormat="1">
-      <x:c r="A45" s="13">
+      <x:c r="A45" s="12">
         <x:v>44366</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C45" s="1">
         <x:v>5</x:v>
@@ -9912,16 +9912,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I45" s="6" t="s">
-        <x:v>111</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="J45" s="6" t="s">
-        <x:v>186</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K45" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L45" s="6" t="s">
-        <x:v>242</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="M45" s="1">
         <x:v>2</x:v>
@@ -10050,7 +10050,7 @@
         <x:v>181.09999999999999</x:v>
       </x:c>
       <x:c r="BC45" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="BD45" s="1">
         <x:v>12</x:v>
@@ -10075,11 +10075,11 @@
       </x:c>
     </x:row>
     <x:row r="46" spans="1:62" s="1" customFormat="1">
-      <x:c r="A46" s="13">
+      <x:c r="A46" s="12">
         <x:v>44370</x:v>
       </x:c>
       <x:c r="B46" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C46" s="1">
         <x:v>5</x:v>
@@ -10100,16 +10100,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I46" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="J46" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="K46" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L46" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M46" s="1">
         <x:v>7</x:v>
@@ -10238,7 +10238,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC46" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="BD46" s="1">
         <x:v>2</x:v>
@@ -10263,11 +10263,11 @@
       </x:c>
     </x:row>
     <x:row r="47" spans="1:62" s="1" customFormat="1">
-      <x:c r="A47" s="13">
+      <x:c r="A47" s="12">
         <x:v>44374</x:v>
       </x:c>
       <x:c r="B47" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C47" s="1">
         <x:v>5</x:v>
@@ -10294,7 +10294,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L47" s="6" t="s">
-        <x:v>237</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="M47" s="1">
         <x:v>16</x:v>
@@ -10423,7 +10423,7 @@
         <x:v>180.80000000000001</x:v>
       </x:c>
       <x:c r="BC47" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="BD47" s="1">
         <x:v>1</x:v>
@@ -10448,11 +10448,11 @@
       </x:c>
     </x:row>
     <x:row r="48" spans="1:62" s="1" customFormat="1">
-      <x:c r="A48" s="13">
+      <x:c r="A48" s="12">
         <x:v>44440</x:v>
       </x:c>
       <x:c r="B48" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C48" s="1">
         <x:v>7</x:v>
@@ -10473,7 +10473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I48" s="6" t="s">
-        <x:v>128</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="J48" s="1">
         <x:v>45</x:v>
@@ -10482,7 +10482,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L48" s="6" t="s">
-        <x:v>238</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="M48" s="1">
         <x:v>21</x:v>
@@ -10611,7 +10611,7 @@
         <x:v>181.90000000000001</x:v>
       </x:c>
       <x:c r="BC48" s="6" t="s">
-        <x:v>125</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="BD48" s="1">
         <x:v>50</x:v>
@@ -10636,11 +10636,11 @@
       </x:c>
     </x:row>
     <x:row r="49" spans="1:62" s="1" customFormat="1">
-      <x:c r="A49" s="13">
+      <x:c r="A49" s="12">
         <x:v>44446</x:v>
       </x:c>
       <x:c r="B49" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C49" s="1">
         <x:v>7</x:v>
@@ -10661,13 +10661,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I49" s="6" t="s">
-        <x:v>235</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="K49" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L49" s="6" t="s">
-        <x:v>236</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="M49" s="1">
         <x:v>3</x:v>
@@ -10796,7 +10796,7 @@
         <x:v>181.90000000000001</x:v>
       </x:c>
       <x:c r="BC49" s="6" t="s">
-        <x:v>130</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="BD49" s="1">
         <x:v>117</x:v>
@@ -10821,11 +10821,11 @@
       </x:c>
     </x:row>
     <x:row r="50" spans="1:62" s="1" customFormat="1">
-      <x:c r="A50" s="13">
+      <x:c r="A50" s="12">
         <x:v>44481</x:v>
       </x:c>
       <x:c r="B50" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C50" s="1">
         <x:v>7</x:v>
@@ -10846,13 +10846,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I50" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="K50" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L50" s="6" t="s">
-        <x:v>254</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="M50" s="1">
         <x:v>8</x:v>
@@ -10981,7 +10981,7 @@
         <x:v>181.5</x:v>
       </x:c>
       <x:c r="BC50" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="BD50" s="1">
         <x:v>94</x:v>
@@ -11006,11 +11006,11 @@
       </x:c>
     </x:row>
     <x:row r="51" spans="1:62" s="1" customFormat="1">
-      <x:c r="A51" s="13">
+      <x:c r="A51" s="12">
         <x:v>44511</x:v>
       </x:c>
       <x:c r="B51" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C51" s="1">
         <x:v>8</x:v>
@@ -11034,7 +11034,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L51" s="6" t="s">
-        <x:v>239</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="M51" s="1">
         <x:v>8</x:v>
@@ -11163,7 +11163,7 @@
         <x:v>183.09999999999999</x:v>
       </x:c>
       <x:c r="BC51" s="6" t="s">
-        <x:v>125</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="BD51" s="1">
         <x:v>51</x:v>
@@ -11188,11 +11188,11 @@
       </x:c>
     </x:row>
     <x:row r="52" spans="1:62" s="1" customFormat="1">
-      <x:c r="A52" s="13">
+      <x:c r="A52" s="12">
         <x:v>44514</x:v>
       </x:c>
       <x:c r="B52" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C52" s="1">
         <x:v>8</x:v>
@@ -11216,13 +11216,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J52" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="K52" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L52" s="6" t="s">
-        <x:v>246</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="M52" s="1">
         <x:v>5</x:v>
@@ -11351,7 +11351,7 @@
         <x:v>181.59999999999999</x:v>
       </x:c>
       <x:c r="BC52" s="6" t="s">
-        <x:v>127</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="BD52" s="1">
         <x:v>21</x:v>
@@ -11376,11 +11376,11 @@
       </x:c>
     </x:row>
     <x:row r="53" spans="1:62" s="1" customFormat="1">
-      <x:c r="A53" s="13">
+      <x:c r="A53" s="12">
         <x:v>44644</x:v>
       </x:c>
       <x:c r="B53" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C53" s="1">
         <x:v>8</x:v>
@@ -11401,7 +11401,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I53" s="6" t="s">
-        <x:v>234</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J53" s="1">
         <x:v>65</x:v>
@@ -11410,7 +11410,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L53" s="6" t="s">
-        <x:v>145</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M53" s="1">
         <x:v>13</x:v>
@@ -11539,7 +11539,7 @@
         <x:v>180.09999999999999</x:v>
       </x:c>
       <x:c r="BC53" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="BD53" s="1">
         <x:v>39</x:v>
@@ -11564,11 +11564,11 @@
       </x:c>
     </x:row>
     <x:row r="54" spans="1:62" s="1" customFormat="1">
-      <x:c r="A54" s="13">
+      <x:c r="A54" s="12">
         <x:v>44649</x:v>
       </x:c>
       <x:c r="B54" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C54" s="1">
         <x:v>8</x:v>
@@ -11589,13 +11589,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I54" s="6" t="s">
-        <x:v>112</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="K54" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L54" s="6" t="s">
-        <x:v>147</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M54" s="1">
         <x:v>7</x:v>
@@ -11724,7 +11724,7 @@
         <x:v>179.30000000000001</x:v>
       </x:c>
       <x:c r="BC54" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="BD54" s="1">
         <x:v>67</x:v>
@@ -11749,11 +11749,11 @@
       </x:c>
     </x:row>
     <x:row r="55" spans="1:62" s="1" customFormat="1">
-      <x:c r="A55" s="13">
+      <x:c r="A55" s="12">
         <x:v>44714</x:v>
       </x:c>
       <x:c r="B55" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C55" s="1">
         <x:v>8</x:v>
@@ -11783,7 +11783,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L55" s="6" t="s">
-        <x:v>249</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="M55" s="1">
         <x:v>7</x:v>
@@ -11912,7 +11912,7 @@
         <x:v>180.09999999999999</x:v>
       </x:c>
       <x:c r="BC55" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="BD55" s="1">
         <x:v>7</x:v>
@@ -11937,11 +11937,11 @@
       </x:c>
     </x:row>
     <x:row r="56" spans="1:62" s="1" customFormat="1">
-      <x:c r="A56" s="13">
+      <x:c r="A56" s="12">
         <x:v>44717</x:v>
       </x:c>
       <x:c r="B56" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C56" s="1">
         <x:v>8</x:v>
@@ -11962,13 +11962,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I56" s="6" t="s">
-        <x:v>252</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="K56" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L56" s="6" t="s">
-        <x:v>250</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M56" s="1">
         <x:v>9</x:v>
@@ -12097,7 +12097,7 @@
         <x:v>181.69999999999999</x:v>
       </x:c>
       <x:c r="BC56" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="BD56" s="1">
         <x:v>14</x:v>
@@ -12122,11 +12122,11 @@
       </x:c>
     </x:row>
     <x:row r="57" spans="1:62" s="1" customFormat="1">
-      <x:c r="A57" s="13">
+      <x:c r="A57" s="12">
         <x:v>44721</x:v>
       </x:c>
       <x:c r="B57" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C57" s="1">
         <x:v>8</x:v>
@@ -12147,13 +12147,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I57" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="K57" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L57" s="6" t="s">
-        <x:v>253</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="M57" s="1">
         <x:v>7</x:v>
@@ -12282,7 +12282,7 @@
         <x:v>182.5</x:v>
       </x:c>
       <x:c r="BC57" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="BD57" s="1">
         <x:v>33</x:v>
@@ -12307,11 +12307,11 @@
       </x:c>
     </x:row>
     <x:row r="58" spans="1:62" s="1" customFormat="1">
-      <x:c r="A58" s="13">
+      <x:c r="A58" s="12">
         <x:v>44724</x:v>
       </x:c>
       <x:c r="B58" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C58" s="1">
         <x:v>8</x:v>
@@ -12338,7 +12338,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L58" s="6" t="s">
-        <x:v>251</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="M58" s="1">
         <x:v>13</x:v>
@@ -12467,7 +12467,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="BC58" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="BD58" s="1">
         <x:v>14</x:v>
@@ -12492,11 +12492,11 @@
       </x:c>
     </x:row>
     <x:row r="59" spans="1:62" s="1" customFormat="1">
-      <x:c r="A59" s="13">
+      <x:c r="A59" s="12">
         <x:v>44828</x:v>
       </x:c>
       <x:c r="B59" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C59" s="1">
         <x:v>7</x:v>
@@ -12517,13 +12517,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I59" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K59" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L59" s="6" t="s">
-        <x:v>250</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M59" s="1">
         <x:v>12</x:v>
@@ -12652,7 +12652,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC59" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="BD59" s="1">
         <x:v>31</x:v>
@@ -12677,11 +12677,11 @@
       </x:c>
     </x:row>
     <x:row r="60" spans="1:62" s="1" customFormat="1">
-      <x:c r="A60" s="13">
+      <x:c r="A60" s="12">
         <x:v>44831</x:v>
       </x:c>
       <x:c r="B60" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C60" s="1">
         <x:v>7</x:v>
@@ -12708,7 +12708,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L60" s="6" t="s">
-        <x:v>243</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="M60" s="1">
         <x:v>4</x:v>
@@ -12837,7 +12837,7 @@
         <x:v>183.09999999999999</x:v>
       </x:c>
       <x:c r="BC60" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="BD60" s="1">
         <x:v>8</x:v>
@@ -12862,11 +12862,11 @@
       </x:c>
     </x:row>
     <x:row r="61" spans="1:62" s="1" customFormat="1">
-      <x:c r="A61" s="12">
+      <x:c r="A61" s="11">
         <x:v>44280</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C61" s="1">
         <x:v>6</x:v>
@@ -12896,7 +12896,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L61" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M61" s="1">
         <x:v>9</x:v>
@@ -13025,7 +13025,7 @@
         <x:v>180.90000000000001</x:v>
       </x:c>
       <x:c r="BC61" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="BD61" s="1">
         <x:v>53</x:v>
@@ -13050,11 +13050,11 @@
       </x:c>
     </x:row>
     <x:row r="62" spans="1:62" s="1" customFormat="1">
-      <x:c r="A62" s="12">
+      <x:c r="A62" s="11">
         <x:v>44283</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C62" s="1">
         <x:v>6</x:v>
@@ -13075,7 +13075,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I62" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="J62" s="1">
         <x:v>43</x:v>
@@ -13084,7 +13084,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L62" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M62" s="1">
         <x:v>7</x:v>
@@ -13213,7 +13213,7 @@
         <x:v>180.80000000000001</x:v>
       </x:c>
       <x:c r="BC62" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="BD62" s="1">
         <x:v>89</x:v>
@@ -13238,11 +13238,11 @@
       </x:c>
     </x:row>
     <x:row r="63" spans="1:62" s="1" customFormat="1">
-      <x:c r="A63" s="12">
+      <x:c r="A63" s="11">
         <x:v>44286</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C63" s="1">
         <x:v>6</x:v>
@@ -13263,7 +13263,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="J63" s="1">
         <x:v>70</x:v>
@@ -13272,7 +13272,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L63" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M63" s="1">
         <x:v>18</x:v>
@@ -13401,7 +13401,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC63" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="BD63" s="1">
         <x:v>117</x:v>
@@ -13426,11 +13426,11 @@
       </x:c>
     </x:row>
     <x:row r="64" spans="1:62" s="1" customFormat="1">
-      <x:c r="A64" s="13">
+      <x:c r="A64" s="12">
         <x:v>44361</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C64" s="1">
         <x:v>6</x:v>
@@ -13454,7 +13454,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L64" s="6" t="s">
-        <x:v>213</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M64" s="1">
         <x:v>14</x:v>
@@ -13583,7 +13583,7 @@
         <x:v>182.5</x:v>
       </x:c>
       <x:c r="BC64" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="BD64" s="1">
         <x:v>18</x:v>
@@ -13608,11 +13608,11 @@
       </x:c>
     </x:row>
     <x:row r="65" spans="1:62" s="1" customFormat="1">
-      <x:c r="A65" s="13">
+      <x:c r="A65" s="12">
         <x:v>44366</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C65" s="1">
         <x:v>6</x:v>
@@ -13642,7 +13642,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L65" s="6" t="s">
-        <x:v>216</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="M65" s="1">
         <x:v>9</x:v>
@@ -13771,7 +13771,7 @@
         <x:v>182.5</x:v>
       </x:c>
       <x:c r="BC65" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BD65" s="1">
         <x:v>21</x:v>
@@ -13796,11 +13796,11 @@
       </x:c>
     </x:row>
     <x:row r="66" spans="1:62" s="1" customFormat="1">
-      <x:c r="A66" s="13">
+      <x:c r="A66" s="12">
         <x:v>44370</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C66" s="1">
         <x:v>6</x:v>
@@ -13821,13 +13821,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I66" s="6" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="K66" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L66" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M66" s="1">
         <x:v>11</x:v>
@@ -13956,7 +13956,7 @@
         <x:v>182.69999999999999</x:v>
       </x:c>
       <x:c r="BC66" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="BD66" s="1">
         <x:v>36</x:v>
@@ -13981,11 +13981,11 @@
       </x:c>
     </x:row>
     <x:row r="67" spans="1:62" s="1" customFormat="1">
-      <x:c r="A67" s="13">
+      <x:c r="A67" s="12">
         <x:v>44375</x:v>
       </x:c>
       <x:c r="B67" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C67" s="1">
         <x:v>6</x:v>
@@ -14006,16 +14006,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I67" s="6" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J67" s="6" t="s">
-        <x:v>231</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="K67" s="1">
         <x:v>6</x:v>
       </x:c>
       <x:c r="L67" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M67" s="1">
         <x:v>19</x:v>
@@ -14144,7 +14144,7 @@
         <x:v>181.80000000000001</x:v>
       </x:c>
       <x:c r="BC67" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="BD67" s="1">
         <x:v>14</x:v>
@@ -14169,11 +14169,11 @@
       </x:c>
     </x:row>
     <x:row r="68" spans="1:62" s="1" customFormat="1">
-      <x:c r="A68" s="13">
+      <x:c r="A68" s="12">
         <x:v>44379</x:v>
       </x:c>
       <x:c r="B68" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C68" s="1">
         <x:v>6</x:v>
@@ -14332,7 +14332,7 @@
         <x:v>181.5</x:v>
       </x:c>
       <x:c r="BC68" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="BD68" s="1">
         <x:v>13</x:v>
@@ -14357,11 +14357,11 @@
       </x:c>
     </x:row>
     <x:row r="69" spans="1:62" s="1" customFormat="1">
-      <x:c r="A69" s="13">
+      <x:c r="A69" s="12">
         <x:v>44383</x:v>
       </x:c>
       <x:c r="B69" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C69" s="1">
         <x:v>6</x:v>
@@ -14391,7 +14391,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="L69" s="6" t="s">
-        <x:v>148</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="M69" s="1">
         <x:v>4</x:v>
@@ -14520,7 +14520,7 @@
         <x:v>182.69999999999999</x:v>
       </x:c>
       <x:c r="BC69" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="BD69" s="1">
         <x:v>7</x:v>
@@ -14545,11 +14545,11 @@
       </x:c>
     </x:row>
     <x:row r="70" spans="1:62" s="1" customFormat="1">
-      <x:c r="A70" s="12">
+      <x:c r="A70" s="11">
         <x:v>44441</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C70" s="1">
         <x:v>8</x:v>
@@ -14573,13 +14573,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="J70" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="K70" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L70" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M70" s="1">
         <x:v>10</x:v>
@@ -14708,7 +14708,7 @@
         <x:v>183.30000000000001</x:v>
       </x:c>
       <x:c r="BC70" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="BD70" s="1">
         <x:v>25</x:v>
@@ -14733,11 +14733,11 @@
       </x:c>
     </x:row>
     <x:row r="71" spans="1:62" s="1" customFormat="1">
-      <x:c r="A71" s="12">
+      <x:c r="A71" s="11">
         <x:v>44444</x:v>
       </x:c>
       <x:c r="B71" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C71" s="1">
         <x:v>8</x:v>
@@ -14758,13 +14758,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I71" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K71" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L71" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="M71" s="1">
         <x:v>10</x:v>
@@ -14893,7 +14893,7 @@
         <x:v>183.19999999999999</x:v>
       </x:c>
       <x:c r="BC71" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="BD71" s="1">
         <x:v>78</x:v>
@@ -14918,11 +14918,11 @@
       </x:c>
     </x:row>
     <x:row r="72" spans="1:62" s="1" customFormat="1">
-      <x:c r="A72" s="12">
+      <x:c r="A72" s="11">
         <x:v>44447</x:v>
       </x:c>
       <x:c r="B72" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C72" s="1">
         <x:v>8</x:v>
@@ -14943,13 +14943,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I72" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="K72" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L72" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M72" s="1">
         <x:v>13</x:v>
@@ -15078,7 +15078,7 @@
         <x:v>181.80000000000001</x:v>
       </x:c>
       <x:c r="BC72" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="BD72" s="1">
         <x:v>107</x:v>
@@ -15103,11 +15103,11 @@
       </x:c>
     </x:row>
     <x:row r="73" spans="1:62" s="1" customFormat="1">
-      <x:c r="A73" s="12">
+      <x:c r="A73" s="11">
         <x:v>44511</x:v>
       </x:c>
       <x:c r="B73" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C73" s="1">
         <x:v>7</x:v>
@@ -15134,7 +15134,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L73" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="M73" s="1">
         <x:v>9</x:v>
@@ -15263,7 +15263,7 @@
         <x:v>180.80000000000001</x:v>
       </x:c>
       <x:c r="BC73" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="BD73" s="1">
         <x:v>55</x:v>
@@ -15288,11 +15288,11 @@
       </x:c>
     </x:row>
     <x:row r="74" spans="1:62" s="1" customFormat="1">
-      <x:c r="A74" s="12">
+      <x:c r="A74" s="11">
         <x:v>44514</x:v>
       </x:c>
       <x:c r="B74" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C74" s="1">
         <x:v>7</x:v>
@@ -15319,7 +15319,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L74" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M74" s="1">
         <x:v>6</x:v>
@@ -15448,7 +15448,7 @@
         <x:v>181.69999999999999</x:v>
       </x:c>
       <x:c r="BC74" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="BD74" s="1">
         <x:v>18</x:v>
@@ -15473,11 +15473,11 @@
       </x:c>
     </x:row>
     <x:row r="75" spans="1:62" s="1" customFormat="1">
-      <x:c r="A75" s="13">
+      <x:c r="A75" s="12">
         <x:v>44714</x:v>
       </x:c>
       <x:c r="B75" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C75" s="1">
         <x:v>7</x:v>
@@ -15507,7 +15507,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L75" s="6" t="s">
-        <x:v>222</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="M75" s="1">
         <x:v>8</x:v>
@@ -15636,7 +15636,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC75" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="BD75" s="1">
         <x:v>8</x:v>
@@ -15661,11 +15661,11 @@
       </x:c>
     </x:row>
     <x:row r="76" spans="1:62" s="1" customFormat="1">
-      <x:c r="A76" s="13">
+      <x:c r="A76" s="12">
         <x:v>44717</x:v>
       </x:c>
       <x:c r="B76" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C76" s="1">
         <x:v>7</x:v>
@@ -15686,16 +15686,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I76" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="J76" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K76" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L76" s="6" t="s">
-        <x:v>223</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="M76" s="1">
         <x:v>7</x:v>
@@ -15824,7 +15824,7 @@
         <x:v>181.90000000000001</x:v>
       </x:c>
       <x:c r="BC76" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="BD76" s="1">
         <x:v>33</x:v>
@@ -15849,11 +15849,11 @@
       </x:c>
     </x:row>
     <x:row r="77" spans="1:62" s="1" customFormat="1">
-      <x:c r="A77" s="13">
+      <x:c r="A77" s="12">
         <x:v>44721</x:v>
       </x:c>
       <x:c r="B77" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C77" s="1">
         <x:v>7</x:v>
@@ -15880,7 +15880,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L77" s="6" t="s">
-        <x:v>224</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="M77" s="1">
         <x:v>6</x:v>
@@ -16009,7 +16009,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="BC77" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="BD77" s="1">
         <x:v>14</x:v>
@@ -16034,11 +16034,11 @@
       </x:c>
     </x:row>
     <x:row r="78" spans="1:62" s="1" customFormat="1">
-      <x:c r="A78" s="13">
+      <x:c r="A78" s="12">
         <x:v>44724</x:v>
       </x:c>
       <x:c r="B78" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C78" s="1">
         <x:v>7</x:v>
@@ -16059,13 +16059,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I78" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="K78" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L78" s="6" t="s">
-        <x:v>220</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="M78" s="1">
         <x:v>9</x:v>
@@ -16194,7 +16194,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="BC78" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="BD78" s="1">
         <x:v>33</x:v>
@@ -16219,11 +16219,11 @@
       </x:c>
     </x:row>
     <x:row r="79" spans="1:62" s="1" customFormat="1">
-      <x:c r="A79" s="13">
+      <x:c r="A79" s="12">
         <x:v>44828</x:v>
       </x:c>
       <x:c r="B79" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C79" s="1">
         <x:v>7</x:v>
@@ -16247,13 +16247,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="J79" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="K79" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L79" s="6" t="s">
-        <x:v>232</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="M79" s="1">
         <x:v>7</x:v>
@@ -16382,7 +16382,7 @@
         <x:v>181.80000000000001</x:v>
       </x:c>
       <x:c r="BC79" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="BD79" s="1">
         <x:v>16</x:v>
@@ -16407,11 +16407,11 @@
       </x:c>
     </x:row>
     <x:row r="80" spans="1:62" s="1" customFormat="1">
-      <x:c r="A80" s="13">
+      <x:c r="A80" s="12">
         <x:v>44831</x:v>
       </x:c>
       <x:c r="B80" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C80" s="1">
         <x:v>7</x:v>
@@ -16438,7 +16438,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L80" s="6" t="s">
-        <x:v>228</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="M80" s="1">
         <x:v>9</x:v>
@@ -16567,7 +16567,7 @@
         <x:v>181.19999999999999</x:v>
       </x:c>
       <x:c r="BC80" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="BD80" s="1">
         <x:v>9</x:v>
@@ -16592,11 +16592,11 @@
       </x:c>
     </x:row>
     <x:row r="81" spans="1:62" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A81" s="14">
+      <x:c r="A81" s="13">
         <x:v>44280</x:v>
       </x:c>
       <x:c r="B81" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C81" s="9">
         <x:v>5</x:v>
@@ -16617,14 +16617,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I81" s="9" t="s">
-        <x:v>132</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J81" s="9"/>
       <x:c r="K81" s="9">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L81" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="M81" s="9">
         <x:v>26</x:v>
@@ -16753,7 +16753,7 @@
         <x:v>182.59999999999999</x:v>
       </x:c>
       <x:c r="BC81" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="BD81" s="9">
         <x:v>210</x:v>
@@ -16778,11 +16778,11 @@
       </x:c>
     </x:row>
     <x:row r="82" spans="1:62" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A82" s="14">
+      <x:c r="A82" s="13">
         <x:v>44283</x:v>
       </x:c>
       <x:c r="B82" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C82" s="9">
         <x:v>5</x:v>
@@ -16803,14 +16803,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I82" s="9" t="s">
-        <x:v>51</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="J82" s="9"/>
       <x:c r="K82" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="L82" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="M82" s="9">
         <x:v>7</x:v>
@@ -16939,7 +16939,7 @@
         <x:v>182.69999999999999</x:v>
       </x:c>
       <x:c r="BC82" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="BD82" s="9">
         <x:v>65</x:v>
@@ -16964,11 +16964,11 @@
       </x:c>
     </x:row>
     <x:row r="83" spans="1:62" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A83" s="14">
+      <x:c r="A83" s="13">
         <x:v>44286</x:v>
       </x:c>
       <x:c r="B83" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C83" s="9">
         <x:v>5</x:v>
@@ -16989,7 +16989,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I83" s="9" t="s">
-        <x:v>45</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J83" s="9">
         <x:v>58</x:v>
@@ -16998,7 +16998,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L83" s="9" t="s">
-        <x:v>217</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="M83" s="9">
         <x:v>6</x:v>
@@ -17127,7 +17127,7 @@
         <x:v>183.5</x:v>
       </x:c>
       <x:c r="BC83" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BD83" s="9">
         <x:v>28</x:v>
@@ -17152,11 +17152,11 @@
       </x:c>
     </x:row>
     <x:row r="84" spans="1:62" s="1" customFormat="1">
-      <x:c r="A84" s="13">
+      <x:c r="A84" s="12">
         <x:v>44360</x:v>
       </x:c>
       <x:c r="B84" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C84" s="1">
         <x:v>4</x:v>
@@ -17183,7 +17183,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L84" s="6" t="s">
-        <x:v>229</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="M84" s="1">
         <x:v>3</x:v>
@@ -17312,7 +17312,7 @@
         <x:v>181.80000000000001</x:v>
       </x:c>
       <x:c r="BC84" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="BD84" s="1">
         <x:v>15</x:v>
@@ -17337,11 +17337,11 @@
       </x:c>
     </x:row>
     <x:row r="85" spans="1:62" s="1" customFormat="1">
-      <x:c r="A85" s="13">
+      <x:c r="A85" s="12">
         <x:v>44365</x:v>
       </x:c>
       <x:c r="B85" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C85" s="1">
         <x:v>4</x:v>
@@ -17365,7 +17365,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L85" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="M85" s="1">
         <x:v>8</x:v>
@@ -17494,7 +17494,7 @@
         <x:v>182.80000000000001</x:v>
       </x:c>
       <x:c r="BC85" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="BD85" s="1">
         <x:v>44</x:v>
@@ -17519,11 +17519,11 @@
       </x:c>
     </x:row>
     <x:row r="86" spans="1:62" s="1" customFormat="1">
-      <x:c r="A86" s="13">
+      <x:c r="A86" s="12">
         <x:v>44369</x:v>
       </x:c>
       <x:c r="B86" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C86" s="1">
         <x:v>4</x:v>
@@ -17550,7 +17550,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L86" s="6" t="s">
-        <x:v>139</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M86" s="1">
         <x:v>4</x:v>
@@ -17679,7 +17679,7 @@
         <x:v>182.40000000000001</x:v>
       </x:c>
       <x:c r="BC86" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="BD86" s="1">
         <x:v>40</x:v>
@@ -17704,11 +17704,11 @@
       </x:c>
     </x:row>
     <x:row r="87" spans="1:62" s="1" customFormat="1">
-      <x:c r="A87" s="13">
+      <x:c r="A87" s="12">
         <x:v>44376</x:v>
       </x:c>
       <x:c r="B87" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C87" s="1">
         <x:v>4</x:v>
@@ -17729,13 +17729,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I87" s="6" t="s">
-        <x:v>68</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="K87" s="1">
         <x:v>2</x:v>
       </x:c>
       <x:c r="L87" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="M87" s="1">
         <x:v>3</x:v>
@@ -17864,7 +17864,7 @@
         <x:v>182.59999999999999</x:v>
       </x:c>
       <x:c r="BC87" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="BD87" s="1">
         <x:v>12</x:v>
@@ -17889,11 +17889,11 @@
       </x:c>
     </x:row>
     <x:row r="88" spans="1:62" s="1" customFormat="1">
-      <x:c r="A88" s="13">
+      <x:c r="A88" s="12">
         <x:v>44380</x:v>
       </x:c>
       <x:c r="B88" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C88" s="1">
         <x:v>4</x:v>
@@ -17914,13 +17914,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I88" s="6" t="s">
-        <x:v>219</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="K88" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L88" s="6" t="s">
-        <x:v>230</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="M88" s="1">
         <x:v>6</x:v>
@@ -18049,7 +18049,7 @@
         <x:v>182.40000000000001</x:v>
       </x:c>
       <x:c r="BC88" s="6" t="s">
-        <x:v>126</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="BD88" s="1">
         <x:v>24</x:v>
@@ -18074,11 +18074,11 @@
       </x:c>
     </x:row>
     <x:row r="89" spans="1:62" s="1" customFormat="1">
-      <x:c r="A89" s="13">
+      <x:c r="A89" s="12">
         <x:v>44384</x:v>
       </x:c>
       <x:c r="B89" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C89" s="1">
         <x:v>4</x:v>
@@ -18105,7 +18105,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L89" s="6" t="s">
-        <x:v>225</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="M89" s="1">
         <x:v>10</x:v>
@@ -18234,7 +18234,7 @@
         <x:v>182.90000000000001</x:v>
       </x:c>
       <x:c r="BC89" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="BD89" s="1">
         <x:v>10</x:v>
@@ -18259,11 +18259,11 @@
       </x:c>
     </x:row>
     <x:row r="90" spans="1:62" s="1" customFormat="1">
-      <x:c r="A90" s="13">
+      <x:c r="A90" s="12">
         <x:v>44388</x:v>
       </x:c>
       <x:c r="B90" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C90" s="1">
         <x:v>4</x:v>
@@ -18293,7 +18293,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L90" s="6" t="s">
-        <x:v>134</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="M90" s="1">
         <x:v>5</x:v>
@@ -18422,7 +18422,7 @@
         <x:v>182.90000000000001</x:v>
       </x:c>
       <x:c r="BC90" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="BD90" s="1">
         <x:v>7</x:v>
@@ -18447,11 +18447,11 @@
       </x:c>
     </x:row>
     <x:row r="91" spans="1:62" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A91" s="14">
+      <x:c r="A91" s="13">
         <x:v>44441</x:v>
       </x:c>
       <x:c r="B91" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C91" s="9">
         <x:v>4</x:v>
@@ -18472,14 +18472,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I91" s="9" t="s">
-        <x:v>204</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J91" s="9"/>
       <x:c r="K91" s="9">
         <x:v>3</x:v>
       </x:c>
       <x:c r="L91" s="9" t="s">
-        <x:v>207</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M91" s="9">
         <x:v>9</x:v>
@@ -18608,7 +18608,7 @@
         <x:v>182.59999999999999</x:v>
       </x:c>
       <x:c r="BC91" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="BD91" s="9">
         <x:v>39</x:v>
@@ -18633,11 +18633,11 @@
       </x:c>
     </x:row>
     <x:row r="92" spans="1:62" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A92" s="14">
+      <x:c r="A92" s="13">
         <x:v>44444</x:v>
       </x:c>
       <x:c r="B92" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C92" s="9">
         <x:v>4</x:v>
@@ -18658,7 +18658,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I92" s="9" t="s">
-        <x:v>205</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J92" s="9"/>
       <x:c r="K92" s="9">
@@ -18794,7 +18794,7 @@
         <x:v>182.5</x:v>
       </x:c>
       <x:c r="BC92" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="BD92" s="9">
         <x:v>155</x:v>
@@ -18819,11 +18819,11 @@
       </x:c>
     </x:row>
     <x:row r="93" spans="1:62" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A93" s="14">
+      <x:c r="A93" s="13">
         <x:v>44447</x:v>
       </x:c>
       <x:c r="B93" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C93" s="9">
         <x:v>4</x:v>
@@ -18853,7 +18853,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L93" s="9" t="s">
-        <x:v>37</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M93" s="9">
         <x:v>9</x:v>
@@ -18982,7 +18982,7 @@
         <x:v>182.59999999999999</x:v>
       </x:c>
       <x:c r="BC93" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BD93" s="9">
         <x:v>24</x:v>
@@ -19007,11 +19007,11 @@
       </x:c>
     </x:row>
     <x:row r="94" spans="1:62" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A94" s="14">
+      <x:c r="A94" s="13">
         <x:v>44478</x:v>
       </x:c>
       <x:c r="B94" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C94" s="9">
         <x:v>5</x:v>
@@ -19032,14 +19032,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I94" s="9" t="s">
-        <x:v>135</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J94" s="9"/>
       <x:c r="K94" s="9">
         <x:v>3</x:v>
       </x:c>
       <x:c r="L94" s="9" t="s">
-        <x:v>218</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M94" s="9">
         <x:v>12</x:v>
@@ -19168,7 +19168,7 @@
         <x:v>181.30000000000001</x:v>
       </x:c>
       <x:c r="BC94" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="BD94" s="9">
         <x:v>153</x:v>
@@ -19193,11 +19193,11 @@
       </x:c>
     </x:row>
     <x:row r="95" spans="1:62" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A95" s="14">
+      <x:c r="A95" s="13">
         <x:v>44481</x:v>
       </x:c>
       <x:c r="B95" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C95" s="9">
         <x:v>5</x:v>
@@ -19227,7 +19227,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L95" s="9" t="s">
-        <x:v>227</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M95" s="9">
         <x:v>5</x:v>
@@ -19356,7 +19356,7 @@
         <x:v>183.19999999999999</x:v>
       </x:c>
       <x:c r="BC95" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="BD95" s="9">
         <x:v>43</x:v>
@@ -19381,11 +19381,11 @@
       </x:c>
     </x:row>
     <x:row r="96" spans="1:62" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A96" s="14">
+      <x:c r="A96" s="13">
         <x:v>44512</x:v>
       </x:c>
       <x:c r="B96" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C96" s="9">
         <x:v>4</x:v>
@@ -19406,14 +19406,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I96" s="9" t="s">
-        <x:v>136</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J96" s="9"/>
       <x:c r="K96" s="9">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L96" s="9" t="s">
-        <x:v>221</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="M96" s="9">
         <x:v>11</x:v>
@@ -19542,7 +19542,7 @@
         <x:v>181.09999999999999</x:v>
       </x:c>
       <x:c r="BC96" s="9" t="s">
-        <x:v>40</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="BD96" s="9">
         <x:v>66</x:v>
@@ -19567,11 +19567,11 @@
       </x:c>
     </x:row>
     <x:row r="97" spans="1:62" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <x:c r="A97" s="14">
+      <x:c r="A97" s="13">
         <x:v>44515</x:v>
       </x:c>
       <x:c r="B97" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C97" s="9">
         <x:v>4</x:v>
@@ -19592,14 +19592,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I97" s="9" t="s">
-        <x:v>256</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="J97" s="9"/>
       <x:c r="K97" s="9">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L97" s="9" t="s">
-        <x:v>194</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="M97" s="9">
         <x:v>16</x:v>
@@ -19728,7 +19728,7 @@
         <x:v>182.5</x:v>
       </x:c>
       <x:c r="BC97" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="BD97" s="9">
         <x:v>210</x:v>
@@ -19753,11 +19753,11 @@
       </x:c>
     </x:row>
     <x:row r="98" spans="1:62" s="1" customFormat="1">
-      <x:c r="A98" s="13">
+      <x:c r="A98" s="12">
         <x:v>44716</x:v>
       </x:c>
       <x:c r="B98" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C98" s="1">
         <x:v>5</x:v>
@@ -19784,7 +19784,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L98" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M98" s="1">
         <x:v>8</x:v>
@@ -19913,7 +19913,7 @@
         <x:v>182.59999999999999</x:v>
       </x:c>
       <x:c r="BC98" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="BD98" s="1">
         <x:v>37</x:v>
@@ -19938,11 +19938,11 @@
       </x:c>
     </x:row>
     <x:row r="99" spans="1:62" s="1" customFormat="1">
-      <x:c r="A99" s="13">
+      <x:c r="A99" s="12">
         <x:v>44719</x:v>
       </x:c>
       <x:c r="B99" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C99" s="1">
         <x:v>5</x:v>
@@ -19972,7 +19972,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L99" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M99" s="1">
         <x:v>8</x:v>
@@ -20101,7 +20101,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC99" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="BD99" s="1">
         <x:v>2</x:v>
@@ -20126,11 +20126,11 @@
       </x:c>
     </x:row>
     <x:row r="100" spans="1:62" s="1" customFormat="1">
-      <x:c r="A100" s="13">
+      <x:c r="A100" s="12">
         <x:v>44723</x:v>
       </x:c>
       <x:c r="B100" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C100" s="1">
         <x:v>5</x:v>
@@ -20154,7 +20154,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L100" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="M100" s="1">
         <x:v>10</x:v>
@@ -20283,7 +20283,7 @@
         <x:v>183.5</x:v>
       </x:c>
       <x:c r="BC100" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="BD100" s="1">
         <x:v>7</x:v>
@@ -20308,11 +20308,11 @@
       </x:c>
     </x:row>
     <x:row r="101" spans="1:62" s="1" customFormat="1">
-      <x:c r="A101" s="13">
+      <x:c r="A101" s="12">
         <x:v>44726</x:v>
       </x:c>
       <x:c r="B101" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C101" s="1">
         <x:v>5</x:v>
@@ -20333,13 +20333,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J101" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K101" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L101" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M101" s="1">
         <x:v>7</x:v>
@@ -20468,7 +20468,7 @@
         <x:v>180.30000000000001</x:v>
       </x:c>
       <x:c r="BC101" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="BD101" s="1">
         <x:v>37</x:v>
@@ -20493,11 +20493,11 @@
       </x:c>
     </x:row>
     <x:row r="102" spans="1:62" s="1" customFormat="1">
-      <x:c r="A102" s="13">
+      <x:c r="A102" s="12">
         <x:v>44827</x:v>
       </x:c>
       <x:c r="B102" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C102" s="1">
         <x:v>5</x:v>
@@ -20653,7 +20653,7 @@
         <x:v>183.59999999999999</x:v>
       </x:c>
       <x:c r="BC102" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="BD102" s="1">
         <x:v>7</x:v>
@@ -20678,11 +20678,11 @@
       </x:c>
     </x:row>
     <x:row r="103" spans="1:62" s="1" customFormat="1">
-      <x:c r="A103" s="13">
+      <x:c r="A103" s="12">
         <x:v>44830</x:v>
       </x:c>
       <x:c r="B103" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C103" s="1">
         <x:v>5</x:v>
@@ -20703,16 +20703,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I103" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J103" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="K103" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L103" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="M103" s="1">
         <x:v>5</x:v>
@@ -20841,7 +20841,7 @@
         <x:v>184.80000000000001</x:v>
       </x:c>
       <x:c r="BC103" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="BD103" s="1">
         <x:v>11</x:v>
@@ -20870,7 +20870,7 @@
     <x:mergeCell ref="B1:BB1"/>
     <x:mergeCell ref="BC1:BJ1"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/data/20212022matchdata.xlsx
+++ b/data/20212022matchdata.xlsx
@@ -16,775 +16,775 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="257">
   <x:si>
+    <x:t>독일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파울수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롱패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코소보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슛차단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상대팀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크로스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폴란드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안도라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그리스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>턴오버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프랑스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스웨덴</x:t>
+  </x:si>
+  <x:si>
     <x:t>조지아</x:t>
   </x:si>
   <x:si>
-    <x:t>폴란드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파울수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크로스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상대팀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코소보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안도라</x:t>
-  </x:si>
-  <x:si>
     <x:t>분석팀</x:t>
   </x:si>
   <x:si>
-    <x:t>턴오버</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스웨덴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>롱패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슛차단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프랑스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그리스</x:t>
+    <x:t>백패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
   </x:si>
   <x:si>
     <x:t>터키</x:t>
   </x:si>
   <x:si>
+    <x:t>스위스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코너킥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핀란드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멘마크</x:t>
+  </x:si>
+  <x:si>
     <x:t>체코</x:t>
   </x:si>
   <x:si>
-    <x:t>백패스</x:t>
+    <x:t>헝가리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스페인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숏패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨기에</x:t>
   </x:si>
   <x:si>
     <x:t>덴마크</x:t>
   </x:si>
   <x:si>
-    <x:t>코너킥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스위스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숏패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>핀란드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벨기에</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멘마크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헝가리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스페인</x:t>
+    <x:t>11,20,22,23,49,76,80,86,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박스바깥슈팅비율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드리블 돌파시도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60,73,84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57,59,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59,82,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65,76,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52,67,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59,69,70,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,81,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57,76,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,61,78,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,88,94,111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,72,73,79,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,70,80,,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,21,31,53,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33,45+1,52,82</x:t>
   </x:si>
   <x:si>
     <x:t>71,72,79,80,88</x:t>
   </x:si>
   <x:si>
-    <x:t>46,88,94,111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,21,31,53,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33,45+1,52,82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,72,73,79,88</x:t>
-  </x:si>
-  <x:si>
     <x:t>8,13,17,69,87</x:t>
   </x:si>
   <x:si>
-    <x:t>16,70,80,,89</x:t>
+    <x:t>46,67,68,79,84</x:t>
   </x:si>
   <x:si>
     <x:t>72,77,78,88,102</x:t>
   </x:si>
   <x:si>
-    <x:t>64,83,84,90+2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,67,68,79,84</x:t>
-  </x:si>
-  <x:si>
     <x:t>707,4,99,120</x:t>
   </x:si>
   <x:si>
-    <x:t>64,83,84,90+3</x:t>
-  </x:si>
-  <x:si>
     <x:t>17,40,59,79,86</x:t>
   </x:si>
   <x:si>
+    <x:t>6,15,27,31,39,42,58,69,78,79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41,77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슬로바키아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71,81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크로아티아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,45+2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스코틀랜드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미들필드존패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실점시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>북마케도니아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182,3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알바니아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45+2,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45+1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33,38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유효슈팅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38,63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산마리노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24,58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리히텐슈타인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33,39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63,74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>후반득점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>득점시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66,84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인터셉트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균연령</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크로스차단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오프사이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌향패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오픈찬스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슈팅시도</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">프랑스 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>69,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45+1,47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌측공격비율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피파랭킹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89,94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경고횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31,60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>후반실점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우측공격비율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56,65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태클성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전반득점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이탈리아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포메이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유효 슈팅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포르투갈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이슬란드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전반실점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골키퍼세이브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잉글랜드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패스횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퇴장횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클리어링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교체횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>루마니아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태클시도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카자스탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66,76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7,56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52,81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패스성공횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아제르바이잔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>룩셈부르크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62,79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63,77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르메니아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아일랜드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45+1,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우향패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세트피스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32,65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균신장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전진패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>볼점유율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우크라이나</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63,79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세르비아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89,95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오스트리아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25,53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78,93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38,57,76,100,103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,45+3,51,68,69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62,70,85,106,109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30,45+2,56,67,71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,42,93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37,66,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73,78,79,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84,87,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,58,64,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,62,73,82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26,31,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61,78,79,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55,70,78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72,73,85,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68,80,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45+1,50,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,62,74,82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67,77,84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,71,78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64,83,84,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65,73,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,35,39,68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,62,72,81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,56,57,67,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,45+3,50,64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,15,35,45,52</x:t>
+  </x:si>
+  <x:si>
     <x:t>9,18,28,33,46</x:t>
   </x:si>
   <x:si>
-    <x:t>46,56,57,67,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,45+3,50,64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,20,22,23,49,76,80,86,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,15,35,45,52</x:t>
-  </x:si>
-  <x:si>
     <x:t>6,12,32,55,59,75,84,87</x:t>
   </x:si>
   <x:si>
+    <x:t>64,83,84,92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64,83,84,93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71,81,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,63,75,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20,85,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72,73,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69,95,106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63,73,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,46,50,63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57,65,73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59,72,78,79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86,89,90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,60,61,73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63,70,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71,82,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63,70,81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65,79,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41,68,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드리블 돌파성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격진영 공중볼 경합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,59,60,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수비진영향한패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수비진영 공중볼 경합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,65,81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72,75,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56,57,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77,91,93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,24,56,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격권 박탈횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68,87,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,65,73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공중볼 경합승리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,73,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격진영향한패스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,72,18,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61,74,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67,85,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,62,79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60,61,71,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35,39,51,60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59,60,73,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62.63,73,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58,67,82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50,70,73,83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60,73,82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34,36,75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,65,72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,60,61,74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71,79,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58,59,72,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84,87,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55,63,69,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,72,80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69,78,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66,71,77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69,82,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57,65,89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,25,41,63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64,75,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,56,68,85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68,79,91,92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,61,72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,17,46,86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65,66,74,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61,68,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64,75,87,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67,80,90,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,52,66,87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보스니아 헤르체고비나</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,68,79,91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,69,70,85</x:t>
+  </x:si>
+  <x:si>
     <x:t>46,54,76,90</x:t>
   </x:si>
   <x:si>
+    <x:t>23,46,79,91</x:t>
+  </x:si>
+  <x:si>
     <x:t>46,64,72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스니아 헤르체고비나</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,52,66,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67,80,90,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,68,79,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,69,70,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23,46,79,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64,75,87,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57,76,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,61,78,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60,73,84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59,82,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57,59,75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65,76,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52,67,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59,69,70,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,81,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박스바깥슈팅비율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드리블 돌파시도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격진영향한패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,59,60,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,24,56,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56,57,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77,91,93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공중볼 경합승리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,65,81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격진영 공중볼 경합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수비진영 공중볼 경합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72,75,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수비진영향한패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격권 박탈횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,73,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68,87,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드리블 돌파성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,65,73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59,60,73,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35,39,51,60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,65,72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62.63,73,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61,74,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,60,61,74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58,67,82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60,73,82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34,36,75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60,61,71,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50,70,73,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71,79,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,62,79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58,59,72,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18,72,18,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67,85,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65,66,74,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,25,41,63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84,87,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69,82,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66,71,77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55,63,69,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14,72,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61,68,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57,65,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69,78,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64,75,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,56,68,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68,79,91,92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,61,72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,17,46,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,60,61,73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72,73,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,46,50,63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57,65,73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20,85,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63,70,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71,82,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63,73,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63,70,81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69,95,106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86,89,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59,72,78,79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65,79,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41,68,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71,81,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,63,75,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84,87,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,62,73,82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64,83,84,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,42,93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55,70,78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45+1,50,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26,31,75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,71,78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72,73,85,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,58,64,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37,66,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73,78,79,89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61,78,79,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,62,74,82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68,80,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67,77,84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65,73,80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,62,72,81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,35,39,68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38,57,76,100,103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30,45+2,56,67,71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62,70,85,106,109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,45+3,51,68,69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,15,27,31,39,42,58,69,78,79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45+1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알바니아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33,38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북마케도니아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41,77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45+2,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,45+2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슬로바키아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24,75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스코틀랜드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71,81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크로아티아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미들필드존패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실점시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유효슈팅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38,63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56,91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크로스차단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산마리노</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24,58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리히텐슈타인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33,39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>득점시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66,84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63,74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>후반득점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인터셉트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균연령</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오프사이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31,60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89,94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75,86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경고횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45+1,47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>후반실점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우측공격비율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56,65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌향패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌측공격비율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오픈찬스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슈팅시도</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">프랑스 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>피파랭킹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전반실점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패스횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클리어링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태클시도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포메이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유효 슈팅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퇴장횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포르투갈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교체횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이슬란드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>루마니아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전반득점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잉글랜드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태클성공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78,90+3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골키퍼세이브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이탈리아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32,65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59,90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45+1,85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균신장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전진패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카자스탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52,81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우향패스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세트피스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66,76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>볼점유율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,7,56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74,87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패스성공횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19,44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아제르바이잔</x:t>
-  </x:si>
-  <x:si>
-    <x:t>룩셈부르크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62,79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르메니아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63,77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68,88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아일랜드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64,83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89,95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오스트리아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25,53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우크라이나</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63,79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세르비아</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1740,8 +1740,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:BJ103"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="AL22" activeCellId="0" sqref="AL22:AL22"/>
+    <x:sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J46" activeCellId="0" sqref="J46:J46"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1788,7 +1788,7 @@
     <x:row r="1" spans="1:62">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1" s="14"/>
       <x:c r="D1" s="14"/>
@@ -1843,7 +1843,7 @@
       <x:c r="BA1" s="14"/>
       <x:c r="BB1" s="14"/>
       <x:c r="BC1" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="BD1" s="14"/>
       <x:c r="BE1" s="14"/>
@@ -1855,190 +1855,190 @@
     </x:row>
     <x:row r="2" spans="1:62">
       <x:c r="A2" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="M2" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="N2" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="O2" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="P2" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="R2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="S2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="T2" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="U2" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="V2" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="W2" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="X2" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="Y2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="Z2" s="1" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="AA2" s="3" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="AB2" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AC2" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="AD2" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="AE2" s="1" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="AF2" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="AG2" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="AH2" s="1" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="AI2" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="I2" s="1" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="J2" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="K2" s="1" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="L2" s="1" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="M2" s="1" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="N2" s="1" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="O2" s="1" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="P2" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="Q2" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="R2" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="S2" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="T2" s="1" t="s">
-        <x:v>230</x:v>
-      </x:c>
-      <x:c r="U2" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="V2" s="1" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="W2" s="1" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="X2" s="1" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="Y2" s="1" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="Z2" s="1" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="AA2" s="3" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="AB2" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="AC2" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="AD2" s="1" t="s">
+      <x:c r="AJ2" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="AK2" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="AE2" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="AF2" s="1" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="AG2" s="1" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="AH2" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AI2" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="AJ2" s="1" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="AK2" s="1" t="s">
-        <x:v>176</x:v>
-      </x:c>
       <x:c r="AL2" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="AM2" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AN2" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="AO2" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="AP2" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="AQ2" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="AR2" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="AS2" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AT2" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="AU2" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="AV2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="AW2" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="AX2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY2" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AZ2" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="BA2" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="BB2" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="BC2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="BD2" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="BE2" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="BF2" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="BG2" s="1" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="AS2" s="1" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="AT2" s="1" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="AU2" s="1" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AV2" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AW2" s="1" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="AX2" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AY2" s="1" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="AZ2" s="1" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="BA2" s="1" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="BB2" s="1" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="BC2" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BD2" s="1" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="BE2" s="1" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="BF2" s="1" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="BG2" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
       <x:c r="BH2" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="BI2" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="BJ2" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:62">
@@ -2046,7 +2046,7 @@
         <x:v>44280</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="1">
         <x:v>13</x:v>
@@ -2067,14 +2067,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="J3" s="1"/>
       <x:c r="K3" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L3" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="M3" s="1">
         <x:v>13</x:v>
@@ -2203,7 +2203,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="BC3" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="BD3" s="1">
         <x:v>46</x:v>
@@ -2232,7 +2232,7 @@
         <x:v>44283</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="1">
         <x:v>13</x:v>
@@ -2260,7 +2260,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L4" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="M4" s="1">
         <x:v>15</x:v>
@@ -2389,7 +2389,7 @@
         <x:v>185.40000000000001</x:v>
       </x:c>
       <x:c r="BC4" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="BD4" s="1">
         <x:v>37</x:v>
@@ -2418,7 +2418,7 @@
         <x:v>44286</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="1">
         <x:v>13</x:v>
@@ -2442,13 +2442,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="J5" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="K5" s="1">
         <x:v>3</x:v>
       </x:c>
       <x:c r="L5" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="M5" s="1">
         <x:v>10</x:v>
@@ -2577,7 +2577,7 @@
         <x:v>183.80000000000001</x:v>
       </x:c>
       <x:c r="BC5" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="BD5" s="1">
         <x:v>65</x:v>
@@ -2606,7 +2606,7 @@
         <x:v>44362</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C6" s="1">
         <x:v>12</x:v>
@@ -2634,7 +2634,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="M6" s="1">
         <x:v>5</x:v>
@@ -2763,7 +2763,7 @@
         <x:v>185.5</x:v>
       </x:c>
       <x:c r="BC6" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="BD6" s="1">
         <x:v>4</x:v>
@@ -2792,7 +2792,7 @@
         <x:v>44366</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="1">
         <x:v>12</x:v>
@@ -2813,16 +2813,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="J7" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="K7" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L7" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="M7" s="1">
         <x:v>10</x:v>
@@ -2951,7 +2951,7 @@
         <x:v>185.5</x:v>
       </x:c>
       <x:c r="BC7" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="BD7" s="1">
         <x:v>9</x:v>
@@ -2980,7 +2980,7 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="1">
         <x:v>12</x:v>
@@ -3001,14 +3001,14 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I8" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="J8" s="1"/>
       <x:c r="K8" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L8" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="M8" s="1">
         <x:v>12</x:v>
@@ -3137,7 +3137,7 @@
         <x:v>185.80000000000001</x:v>
       </x:c>
       <x:c r="BC8" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="BD8" s="1">
         <x:v>37</x:v>
@@ -3166,7 +3166,7 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C9" s="1">
         <x:v>12</x:v>
@@ -3188,13 +3188,13 @@
       </x:c>
       <x:c r="I9" s="1"/>
       <x:c r="J9" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K9" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L9" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="M9" s="1">
         <x:v>6</x:v>
@@ -3323,7 +3323,7 @@
         <x:v>186.30000000000001</x:v>
       </x:c>
       <x:c r="BC9" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="BD9" s="1">
         <x:v>4</x:v>
@@ -3352,7 +3352,7 @@
         <x:v>44441</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C10" s="1">
         <x:v>16</x:v>
@@ -3373,14 +3373,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J10" s="1"/>
       <x:c r="K10" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L10" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="M10" s="1">
         <x:v>21</x:v>
@@ -3509,7 +3509,7 @@
         <x:v>185.5</x:v>
       </x:c>
       <x:c r="BC10" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BD10" s="1">
         <x:v>189</x:v>
@@ -3538,7 +3538,7 @@
         <x:v>44444</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C11" s="1">
         <x:v>16</x:v>
@@ -3559,14 +3559,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="J11" s="1"/>
       <x:c r="K11" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L11" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="M11" s="1">
         <x:v>17</x:v>
@@ -3695,7 +3695,7 @@
         <x:v>183.80000000000001</x:v>
       </x:c>
       <x:c r="BC11" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="BD11" s="1">
         <x:v>88</x:v>
@@ -3724,7 +3724,7 @@
         <x:v>44447</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C12" s="1">
         <x:v>16</x:v>
@@ -3745,14 +3745,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I12" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="J12" s="1"/>
       <x:c r="K12" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L12" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="M12" s="1">
         <x:v>13</x:v>
@@ -3881,7 +3881,7 @@
         <x:v>183.80000000000001</x:v>
       </x:c>
       <x:c r="BC12" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="BD12" s="1">
         <x:v>53</x:v>
@@ -3910,7 +3910,7 @@
         <x:v>44477</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C13" s="1">
         <x:v>14</x:v>
@@ -3931,7 +3931,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="J13" s="1">
         <x:v>9</x:v>
@@ -3940,7 +3940,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L13" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="M13" s="1">
         <x:v>16</x:v>
@@ -4069,7 +4069,7 @@
         <x:v>184.5</x:v>
       </x:c>
       <x:c r="BC13" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="BD13" s="1">
         <x:v>42</x:v>
@@ -4098,7 +4098,7 @@
         <x:v>44480</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C14" s="1">
         <x:v>14</x:v>
@@ -4119,14 +4119,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="J14" s="1"/>
       <x:c r="K14" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L14" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="M14" s="1">
         <x:v>14</x:v>
@@ -4255,7 +4255,7 @@
         <x:v>184.5</x:v>
       </x:c>
       <x:c r="BC14" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="BD14" s="1">
         <x:v>74</x:v>
@@ -4284,7 +4284,7 @@
         <x:v>44511</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="1">
         <x:v>12</x:v>
@@ -4305,14 +4305,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I15" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J15" s="1"/>
       <x:c r="K15" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L15" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="M15" s="1">
         <x:v>35</x:v>
@@ -4441,7 +4441,7 @@
         <x:v>183.90000000000001</x:v>
       </x:c>
       <x:c r="BC15" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BD15" s="1">
         <x:v>190</x:v>
@@ -4470,7 +4470,7 @@
         <x:v>44514</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="1">
         <x:v>12</x:v>
@@ -4491,7 +4491,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J16" s="1">
         <x:v>59</x:v>
@@ -4500,7 +4500,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L16" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M16" s="1">
         <x:v>13</x:v>
@@ -4629,7 +4629,7 @@
         <x:v>185.59999999999999</x:v>
       </x:c>
       <x:c r="BC16" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="BD16" s="1">
         <x:v>89</x:v>
@@ -4658,7 +4658,7 @@
         <x:v>44716</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="1">
         <x:v>12</x:v>
@@ -4688,7 +4688,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L17" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M17" s="1">
         <x:v>12</x:v>
@@ -4817,7 +4817,7 @@
         <x:v>184.09999999999999</x:v>
       </x:c>
       <x:c r="BC17" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="BD17" s="1">
         <x:v>6</x:v>
@@ -4846,7 +4846,7 @@
         <x:v>44719</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="1">
         <x:v>12</x:v>
@@ -4876,7 +4876,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L18" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M18" s="1">
         <x:v>7</x:v>
@@ -5005,7 +5005,7 @@
         <x:v>185.59999999999999</x:v>
       </x:c>
       <x:c r="BC18" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="BD18" s="1">
         <x:v>5</x:v>
@@ -5034,7 +5034,7 @@
         <x:v>44723</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C19" s="1">
         <x:v>12</x:v>
@@ -5064,7 +5064,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L19" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="M19" s="1">
         <x:v>4</x:v>
@@ -5193,7 +5193,7 @@
         <x:v>185.40000000000001</x:v>
       </x:c>
       <x:c r="BC19" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="BD19" s="1">
         <x:v>40</x:v>
@@ -5222,7 +5222,7 @@
         <x:v>44726</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C20" s="1">
         <x:v>12</x:v>
@@ -5243,16 +5243,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="J20" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="J20" s="1" t="s">
-        <x:v>222</x:v>
-      </x:c>
       <x:c r="K20" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L20" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="M20" s="1">
         <x:v>11</x:v>
@@ -5381,7 +5381,7 @@
         <x:v>185.90000000000001</x:v>
       </x:c>
       <x:c r="BC20" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="BD20" s="1">
         <x:v>6</x:v>
@@ -5410,7 +5410,7 @@
         <x:v>44827</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="1">
         <x:v>11</x:v>
@@ -5438,7 +5438,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L21" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="M21" s="1">
         <x:v>8</x:v>
@@ -5567,7 +5567,7 @@
         <x:v>184.19999999999999</x:v>
       </x:c>
       <x:c r="BC21" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="BD21" s="1">
         <x:v>37</x:v>
@@ -5596,7 +5596,7 @@
         <x:v>44830</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C22" s="1">
         <x:v>11</x:v>
@@ -5617,16 +5617,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J22" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="K22" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L22" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="M22" s="1">
         <x:v>8</x:v>
@@ -5752,10 +5752,10 @@
         <x:v>26.399999999999999</x:v>
       </x:c>
       <x:c r="BB22" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="BC22" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="BD22" s="1">
         <x:v>5</x:v>
@@ -5784,7 +5784,7 @@
         <x:v>44279</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C23" s="1">
         <x:v>2</x:v>
@@ -5814,7 +5814,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="M23" s="1">
         <x:v>13</x:v>
@@ -5943,7 +5943,7 @@
         <x:v>184.09999999999999</x:v>
       </x:c>
       <x:c r="BC23" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="BD23" s="1">
         <x:v>24</x:v>
@@ -5972,7 +5972,7 @@
         <x:v>44283</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C24" s="1">
         <x:v>2</x:v>
@@ -5993,13 +5993,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="K24" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L24" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M24" s="1">
         <x:v>10</x:v>
@@ -6128,7 +6128,7 @@
         <x:v>183.5</x:v>
       </x:c>
       <x:c r="BC24" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="BD24" s="1">
         <x:v>122</x:v>
@@ -6157,7 +6157,7 @@
         <x:v>44286</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C25" s="1">
         <x:v>2</x:v>
@@ -6184,7 +6184,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L25" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="M25" s="1">
         <x:v>4</x:v>
@@ -6313,7 +6313,7 @@
         <x:v>183.90000000000001</x:v>
       </x:c>
       <x:c r="BC25" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="BD25" s="1">
         <x:v>56</x:v>
@@ -6342,7 +6342,7 @@
         <x:v>44362</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C26" s="1">
         <x:v>2</x:v>
@@ -6370,7 +6370,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L26" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M26" s="1">
         <x:v>3</x:v>
@@ -6499,7 +6499,7 @@
         <x:v>182.69999999999999</x:v>
       </x:c>
       <x:c r="BC26" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="BD26" s="1">
         <x:v>12</x:v>
@@ -6528,7 +6528,7 @@
         <x:v>44366</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C27" s="1">
         <x:v>2</x:v>
@@ -6552,13 +6552,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="J27" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K27" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L27" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="M27" s="1">
         <x:v>13</x:v>
@@ -6687,7 +6687,7 @@
         <x:v>183.40000000000001</x:v>
       </x:c>
       <x:c r="BC27" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="BD27" s="1">
         <x:v>37</x:v>
@@ -6716,7 +6716,7 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C28" s="1">
         <x:v>2</x:v>
@@ -6737,16 +6737,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I28" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="J28" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K28" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L28" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="M28" s="1">
         <x:v>10</x:v>
@@ -6875,7 +6875,7 @@
         <x:v>182.19999999999999</x:v>
       </x:c>
       <x:c r="BC28" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="BD28" s="1">
         <x:v>5</x:v>
@@ -6904,7 +6904,7 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C29" s="1">
         <x:v>2</x:v>
@@ -6925,16 +6925,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I29" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J29" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K29" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L29" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M29" s="1">
         <x:v>22</x:v>
@@ -7063,7 +7063,7 @@
         <x:v>183.5</x:v>
       </x:c>
       <x:c r="BC29" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="BD29" s="1">
         <x:v>13</x:v>
@@ -7092,7 +7092,7 @@
         <x:v>44715</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C30" s="1">
         <x:v>3</x:v>
@@ -7116,13 +7116,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="J30" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K30" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L30" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M30" s="1">
         <x:v>15</x:v>
@@ -7251,7 +7251,7 @@
         <x:v>182.59999999999999</x:v>
       </x:c>
       <x:c r="BC30" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="BD30" s="1">
         <x:v>11</x:v>
@@ -7280,7 +7280,7 @@
         <x:v>44718</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C31" s="1">
         <x:v>3</x:v>
@@ -7310,7 +7310,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L31" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="M31" s="1">
         <x:v>7</x:v>
@@ -7439,7 +7439,7 @@
         <x:v>183.90000000000001</x:v>
       </x:c>
       <x:c r="BC31" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="BD31" s="1">
         <x:v>16</x:v>
@@ -7468,7 +7468,7 @@
         <x:v>44722</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C32" s="1">
         <x:v>3</x:v>
@@ -7498,7 +7498,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L32" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="M32" s="1">
         <x:v>8</x:v>
@@ -7627,7 +7627,7 @@
         <x:v>180.90000000000001</x:v>
       </x:c>
       <x:c r="BC32" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="BD32" s="1">
         <x:v>34</x:v>
@@ -7656,7 +7656,7 @@
         <x:v>44725</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C33" s="1">
         <x:v>3</x:v>
@@ -7684,7 +7684,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L33" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="M33" s="1">
         <x:v>12</x:v>
@@ -7813,7 +7813,7 @@
         <x:v>181.30000000000001</x:v>
       </x:c>
       <x:c r="BC33" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="BD33" s="1">
         <x:v>16</x:v>
@@ -7842,7 +7842,7 @@
         <x:v>44440</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C34" s="1">
         <x:v>4</x:v>
@@ -7872,7 +7872,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L34" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="M34" s="1">
         <x:v>2</x:v>
@@ -8001,7 +8001,7 @@
         <x:v>181.5</x:v>
       </x:c>
       <x:c r="BC34" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="BD34" s="1">
         <x:v>57</x:v>
@@ -8030,7 +8030,7 @@
         <x:v>44443</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C35" s="1">
         <x:v>4</x:v>
@@ -8060,7 +8060,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L35" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="M35" s="1">
         <x:v>13</x:v>
@@ -8189,7 +8189,7 @@
         <x:v>183.5</x:v>
       </x:c>
       <x:c r="BC35" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="BD35" s="1">
         <x:v>27</x:v>
@@ -8218,7 +8218,7 @@
         <x:v>44446</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C36" s="1">
         <x:v>4</x:v>
@@ -8239,13 +8239,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="K36" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L36" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="M36" s="1">
         <x:v>15</x:v>
@@ -8374,7 +8374,7 @@
         <x:v>182.90000000000001</x:v>
       </x:c>
       <x:c r="BC36" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="BD36" s="1">
         <x:v>55</x:v>
@@ -8403,7 +8403,7 @@
         <x:v>44461</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C37" s="1">
         <x:v>4</x:v>
@@ -8424,14 +8424,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="J37" s="1"/>
       <x:c r="K37" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L37" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="M37" s="1">
         <x:v>16</x:v>
@@ -8560,7 +8560,7 @@
         <x:v>184.80000000000001</x:v>
       </x:c>
       <x:c r="BC37" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="BD37" s="1">
         <x:v>33</x:v>
@@ -8589,7 +8589,7 @@
         <x:v>44464</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C38" s="1">
         <x:v>4</x:v>
@@ -8611,13 +8611,13 @@
       </x:c>
       <x:c r="I38" s="7"/>
       <x:c r="J38" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="K38" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L38" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="M38" s="1">
         <x:v>12</x:v>
@@ -8746,7 +8746,7 @@
         <x:v>186.30000000000001</x:v>
       </x:c>
       <x:c r="BC38" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="BD38" s="1">
         <x:v>10</x:v>
@@ -8775,7 +8775,7 @@
         <x:v>44513</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C39" s="1">
         <x:v>3</x:v>
@@ -8796,13 +8796,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="K39" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L39" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M39" s="1">
         <x:v>13</x:v>
@@ -8931,7 +8931,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC39" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="BD39" s="1">
         <x:v>119</x:v>
@@ -8960,7 +8960,7 @@
         <x:v>44516</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C40" s="1">
         <x:v>3</x:v>
@@ -8981,13 +8981,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="K40" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L40" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="M40" s="1">
         <x:v>8</x:v>
@@ -9116,7 +9116,7 @@
         <x:v>181.30000000000001</x:v>
       </x:c>
       <x:c r="BC40" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="BD40" s="1">
         <x:v>58</x:v>
@@ -9145,7 +9145,7 @@
         <x:v>44279</x:v>
       </x:c>
       <x:c r="B41" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C41" s="1">
         <x:v>5</x:v>
@@ -9172,7 +9172,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L41" s="6" t="s">
-        <x:v>131</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="M41" s="1">
         <x:v>19</x:v>
@@ -9301,7 +9301,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC41" s="6" t="s">
-        <x:v>243</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="BD41" s="1">
         <x:v>108</x:v>
@@ -9330,7 +9330,7 @@
         <x:v>44282</x:v>
       </x:c>
       <x:c r="B42" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C42" s="1">
         <x:v>5</x:v>
@@ -9351,16 +9351,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I42" s="6" t="s">
-        <x:v>227</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J42" s="6" t="s">
-        <x:v>238</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="K42" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L42" s="6" t="s">
-        <x:v>140</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="M42" s="1">
         <x:v>9</x:v>
@@ -9489,7 +9489,7 @@
         <x:v>181.59999999999999</x:v>
       </x:c>
       <x:c r="BC42" s="6" t="s">
-        <x:v>256</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="BD42" s="1">
         <x:v>30</x:v>
@@ -9518,7 +9518,7 @@
         <x:v>44285</x:v>
       </x:c>
       <x:c r="B43" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C43" s="1">
         <x:v>5</x:v>
@@ -9539,7 +9539,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I43" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J43" s="1">
         <x:v>30</x:v>
@@ -9548,7 +9548,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L43" s="6" t="s">
-        <x:v>129</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="M43" s="1">
         <x:v>14</x:v>
@@ -9677,7 +9677,7 @@
         <x:v>181.80000000000001</x:v>
       </x:c>
       <x:c r="BC43" s="6" t="s">
-        <x:v>244</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="BD43" s="1">
         <x:v>98</x:v>
@@ -9706,7 +9706,7 @@
         <x:v>44362</x:v>
       </x:c>
       <x:c r="B44" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C44" s="1">
         <x:v>5</x:v>
@@ -9727,13 +9727,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I44" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="K44" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L44" s="6" t="s">
-        <x:v>130</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="M44" s="1">
         <x:v>8</x:v>
@@ -9862,7 +9862,7 @@
         <x:v>180.5</x:v>
       </x:c>
       <x:c r="BC44" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="BD44" s="1">
         <x:v>37</x:v>
@@ -9891,7 +9891,7 @@
         <x:v>44366</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C45" s="1">
         <x:v>5</x:v>
@@ -9912,16 +9912,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I45" s="6" t="s">
-        <x:v>231</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="J45" s="6" t="s">
-        <x:v>86</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="K45" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L45" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M45" s="1">
         <x:v>2</x:v>
@@ -10050,7 +10050,7 @@
         <x:v>181.09999999999999</x:v>
       </x:c>
       <x:c r="BC45" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="BD45" s="1">
         <x:v>12</x:v>
@@ -10079,7 +10079,7 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="B46" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C46" s="1">
         <x:v>5</x:v>
@@ -10100,16 +10100,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I46" s="6" t="s">
-        <x:v>193</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J46" s="6" t="s">
-        <x:v>197</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K46" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L46" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M46" s="1">
         <x:v>7</x:v>
@@ -10238,7 +10238,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC46" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="BD46" s="1">
         <x:v>2</x:v>
@@ -10267,7 +10267,7 @@
         <x:v>44374</x:v>
       </x:c>
       <x:c r="B47" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C47" s="1">
         <x:v>5</x:v>
@@ -10294,7 +10294,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L47" s="6" t="s">
-        <x:v>136</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="M47" s="1">
         <x:v>16</x:v>
@@ -10423,7 +10423,7 @@
         <x:v>180.80000000000001</x:v>
       </x:c>
       <x:c r="BC47" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="BD47" s="1">
         <x:v>1</x:v>
@@ -10452,7 +10452,7 @@
         <x:v>44440</x:v>
       </x:c>
       <x:c r="B48" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C48" s="1">
         <x:v>7</x:v>
@@ -10473,7 +10473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I48" s="6" t="s">
-        <x:v>251</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J48" s="1">
         <x:v>45</x:v>
@@ -10482,7 +10482,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L48" s="6" t="s">
-        <x:v>133</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="M48" s="1">
         <x:v>21</x:v>
@@ -10611,7 +10611,7 @@
         <x:v>181.90000000000001</x:v>
       </x:c>
       <x:c r="BC48" s="6" t="s">
-        <x:v>249</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="BD48" s="1">
         <x:v>50</x:v>
@@ -10640,7 +10640,7 @@
         <x:v>44446</x:v>
       </x:c>
       <x:c r="B49" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C49" s="1">
         <x:v>7</x:v>
@@ -10661,13 +10661,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I49" s="6" t="s">
-        <x:v>138</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="K49" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L49" s="6" t="s">
-        <x:v>139</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M49" s="1">
         <x:v>3</x:v>
@@ -10796,7 +10796,7 @@
         <x:v>181.90000000000001</x:v>
       </x:c>
       <x:c r="BC49" s="6" t="s">
-        <x:v>243</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="BD49" s="1">
         <x:v>117</x:v>
@@ -10825,7 +10825,7 @@
         <x:v>44481</x:v>
       </x:c>
       <x:c r="B50" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C50" s="1">
         <x:v>7</x:v>
@@ -10846,13 +10846,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I50" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K50" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L50" s="6" t="s">
-        <x:v>148</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M50" s="1">
         <x:v>8</x:v>
@@ -10981,7 +10981,7 @@
         <x:v>181.5</x:v>
       </x:c>
       <x:c r="BC50" s="6" t="s">
-        <x:v>244</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="BD50" s="1">
         <x:v>94</x:v>
@@ -11010,7 +11010,7 @@
         <x:v>44511</x:v>
       </x:c>
       <x:c r="B51" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C51" s="1">
         <x:v>8</x:v>
@@ -11034,7 +11034,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L51" s="6" t="s">
-        <x:v>144</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="M51" s="1">
         <x:v>8</x:v>
@@ -11163,7 +11163,7 @@
         <x:v>183.09999999999999</x:v>
       </x:c>
       <x:c r="BC51" s="6" t="s">
-        <x:v>249</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="BD51" s="1">
         <x:v>51</x:v>
@@ -11192,7 +11192,7 @@
         <x:v>44514</x:v>
       </x:c>
       <x:c r="B52" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C52" s="1">
         <x:v>8</x:v>
@@ -11216,13 +11216,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J52" s="6" t="s">
-        <x:v>168</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="K52" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L52" s="6" t="s">
-        <x:v>134</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="M52" s="1">
         <x:v>5</x:v>
@@ -11351,7 +11351,7 @@
         <x:v>181.59999999999999</x:v>
       </x:c>
       <x:c r="BC52" s="6" t="s">
-        <x:v>256</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="BD52" s="1">
         <x:v>21</x:v>
@@ -11380,7 +11380,7 @@
         <x:v>44644</x:v>
       </x:c>
       <x:c r="B53" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C53" s="1">
         <x:v>8</x:v>
@@ -11401,7 +11401,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I53" s="6" t="s">
-        <x:v>135</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="J53" s="1">
         <x:v>65</x:v>
@@ -11410,7 +11410,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L53" s="6" t="s">
-        <x:v>38</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="M53" s="1">
         <x:v>13</x:v>
@@ -11539,7 +11539,7 @@
         <x:v>180.09999999999999</x:v>
       </x:c>
       <x:c r="BC53" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="BD53" s="1">
         <x:v>39</x:v>
@@ -11568,7 +11568,7 @@
         <x:v>44649</x:v>
       </x:c>
       <x:c r="B54" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C54" s="1">
         <x:v>8</x:v>
@@ -11589,13 +11589,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I54" s="6" t="s">
-        <x:v>225</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="K54" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L54" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="M54" s="1">
         <x:v>7</x:v>
@@ -11724,7 +11724,7 @@
         <x:v>179.30000000000001</x:v>
       </x:c>
       <x:c r="BC54" s="6" t="s">
-        <x:v>160</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="BD54" s="1">
         <x:v>67</x:v>
@@ -11753,7 +11753,7 @@
         <x:v>44714</x:v>
       </x:c>
       <x:c r="B55" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C55" s="1">
         <x:v>8</x:v>
@@ -11783,7 +11783,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L55" s="6" t="s">
-        <x:v>149</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="M55" s="1">
         <x:v>7</x:v>
@@ -11912,7 +11912,7 @@
         <x:v>180.09999999999999</x:v>
       </x:c>
       <x:c r="BC55" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="BD55" s="1">
         <x:v>7</x:v>
@@ -11941,7 +11941,7 @@
         <x:v>44717</x:v>
       </x:c>
       <x:c r="B56" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C56" s="1">
         <x:v>8</x:v>
@@ -11962,13 +11962,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I56" s="6" t="s">
-        <x:v>150</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="K56" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L56" s="6" t="s">
-        <x:v>147</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="M56" s="1">
         <x:v>9</x:v>
@@ -12097,7 +12097,7 @@
         <x:v>181.69999999999999</x:v>
       </x:c>
       <x:c r="BC56" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="BD56" s="1">
         <x:v>14</x:v>
@@ -12126,7 +12126,7 @@
         <x:v>44721</x:v>
       </x:c>
       <x:c r="B57" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C57" s="1">
         <x:v>8</x:v>
@@ -12147,13 +12147,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I57" s="6" t="s">
-        <x:v>159</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K57" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L57" s="6" t="s">
-        <x:v>146</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="M57" s="1">
         <x:v>7</x:v>
@@ -12282,7 +12282,7 @@
         <x:v>182.5</x:v>
       </x:c>
       <x:c r="BC57" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="BD57" s="1">
         <x:v>33</x:v>
@@ -12311,7 +12311,7 @@
         <x:v>44724</x:v>
       </x:c>
       <x:c r="B58" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C58" s="1">
         <x:v>8</x:v>
@@ -12338,7 +12338,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L58" s="6" t="s">
-        <x:v>145</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="M58" s="1">
         <x:v>13</x:v>
@@ -12467,7 +12467,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="BC58" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="BD58" s="1">
         <x:v>14</x:v>
@@ -12496,7 +12496,7 @@
         <x:v>44828</x:v>
       </x:c>
       <x:c r="B59" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C59" s="1">
         <x:v>7</x:v>
@@ -12517,13 +12517,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I59" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K59" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L59" s="6" t="s">
-        <x:v>147</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="M59" s="1">
         <x:v>12</x:v>
@@ -12652,7 +12652,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC59" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="BD59" s="1">
         <x:v>31</x:v>
@@ -12681,7 +12681,7 @@
         <x:v>44831</x:v>
       </x:c>
       <x:c r="B60" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C60" s="1">
         <x:v>7</x:v>
@@ -12708,7 +12708,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L60" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="M60" s="1">
         <x:v>4</x:v>
@@ -12837,7 +12837,7 @@
         <x:v>183.09999999999999</x:v>
       </x:c>
       <x:c r="BC60" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="BD60" s="1">
         <x:v>8</x:v>
@@ -12866,7 +12866,7 @@
         <x:v>44280</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C61" s="1">
         <x:v>6</x:v>
@@ -12896,7 +12896,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L61" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="M61" s="1">
         <x:v>9</x:v>
@@ -13025,7 +13025,7 @@
         <x:v>180.90000000000001</x:v>
       </x:c>
       <x:c r="BC61" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="BD61" s="1">
         <x:v>53</x:v>
@@ -13054,7 +13054,7 @@
         <x:v>44283</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C62" s="1">
         <x:v>6</x:v>
@@ -13075,7 +13075,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I62" s="6" t="s">
-        <x:v>178</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J62" s="1">
         <x:v>43</x:v>
@@ -13084,7 +13084,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L62" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="M62" s="1">
         <x:v>7</x:v>
@@ -13213,7 +13213,7 @@
         <x:v>180.80000000000001</x:v>
       </x:c>
       <x:c r="BC62" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="BD62" s="1">
         <x:v>89</x:v>
@@ -13242,7 +13242,7 @@
         <x:v>44286</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C63" s="1">
         <x:v>6</x:v>
@@ -13263,7 +13263,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="J63" s="1">
         <x:v>70</x:v>
@@ -13272,7 +13272,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L63" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="M63" s="1">
         <x:v>18</x:v>
@@ -13401,7 +13401,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC63" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="BD63" s="1">
         <x:v>117</x:v>
@@ -13430,7 +13430,7 @@
         <x:v>44361</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C64" s="1">
         <x:v>6</x:v>
@@ -13454,7 +13454,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L64" s="6" t="s">
-        <x:v>101</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="M64" s="1">
         <x:v>14</x:v>
@@ -13583,7 +13583,7 @@
         <x:v>182.5</x:v>
       </x:c>
       <x:c r="BC64" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="BD64" s="1">
         <x:v>18</x:v>
@@ -13612,7 +13612,7 @@
         <x:v>44366</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C65" s="1">
         <x:v>6</x:v>
@@ -13642,7 +13642,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L65" s="6" t="s">
-        <x:v>108</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="M65" s="1">
         <x:v>9</x:v>
@@ -13771,7 +13771,7 @@
         <x:v>182.5</x:v>
       </x:c>
       <x:c r="BC65" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="BD65" s="1">
         <x:v>21</x:v>
@@ -13800,7 +13800,7 @@
         <x:v>44370</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C66" s="1">
         <x:v>6</x:v>
@@ -13821,13 +13821,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I66" s="6" t="s">
-        <x:v>152</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="K66" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L66" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="M66" s="1">
         <x:v>11</x:v>
@@ -13956,7 +13956,7 @@
         <x:v>182.69999999999999</x:v>
       </x:c>
       <x:c r="BC66" s="6" t="s">
-        <x:v>164</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="BD66" s="1">
         <x:v>36</x:v>
@@ -13985,7 +13985,7 @@
         <x:v>44375</x:v>
       </x:c>
       <x:c r="B67" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C67" s="1">
         <x:v>6</x:v>
@@ -14006,16 +14006,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I67" s="6" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="J67" s="6" t="s">
-        <x:v>120</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="K67" s="1">
         <x:v>6</x:v>
       </x:c>
       <x:c r="L67" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M67" s="1">
         <x:v>19</x:v>
@@ -14144,7 +14144,7 @@
         <x:v>181.80000000000001</x:v>
       </x:c>
       <x:c r="BC67" s="6" t="s">
-        <x:v>171</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="BD67" s="1">
         <x:v>14</x:v>
@@ -14173,7 +14173,7 @@
         <x:v>44379</x:v>
       </x:c>
       <x:c r="B68" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C68" s="1">
         <x:v>6</x:v>
@@ -14332,7 +14332,7 @@
         <x:v>181.5</x:v>
       </x:c>
       <x:c r="BC68" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="BD68" s="1">
         <x:v>13</x:v>
@@ -14361,7 +14361,7 @@
         <x:v>44383</x:v>
       </x:c>
       <x:c r="B69" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C69" s="1">
         <x:v>6</x:v>
@@ -14391,7 +14391,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="L69" s="6" t="s">
-        <x:v>153</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="M69" s="1">
         <x:v>4</x:v>
@@ -14520,7 +14520,7 @@
         <x:v>182.69999999999999</x:v>
       </x:c>
       <x:c r="BC69" s="6" t="s">
-        <x:v>224</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="BD69" s="1">
         <x:v>7</x:v>
@@ -14549,7 +14549,7 @@
         <x:v>44441</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C70" s="1">
         <x:v>8</x:v>
@@ -14573,13 +14573,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="J70" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="K70" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L70" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="M70" s="1">
         <x:v>10</x:v>
@@ -14708,7 +14708,7 @@
         <x:v>183.30000000000001</x:v>
       </x:c>
       <x:c r="BC70" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="BD70" s="1">
         <x:v>25</x:v>
@@ -14737,7 +14737,7 @@
         <x:v>44444</x:v>
       </x:c>
       <x:c r="B71" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C71" s="1">
         <x:v>8</x:v>
@@ -14758,13 +14758,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I71" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="K71" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L71" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="M71" s="1">
         <x:v>10</x:v>
@@ -14893,7 +14893,7 @@
         <x:v>183.19999999999999</x:v>
       </x:c>
       <x:c r="BC71" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="BD71" s="1">
         <x:v>78</x:v>
@@ -14922,7 +14922,7 @@
         <x:v>44447</x:v>
       </x:c>
       <x:c r="B72" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C72" s="1">
         <x:v>8</x:v>
@@ -14943,13 +14943,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I72" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K72" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L72" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="M72" s="1">
         <x:v>13</x:v>
@@ -15078,7 +15078,7 @@
         <x:v>181.80000000000001</x:v>
       </x:c>
       <x:c r="BC72" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="BD72" s="1">
         <x:v>107</x:v>
@@ -15107,7 +15107,7 @@
         <x:v>44511</x:v>
       </x:c>
       <x:c r="B73" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C73" s="1">
         <x:v>7</x:v>
@@ -15134,7 +15134,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L73" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="M73" s="1">
         <x:v>9</x:v>
@@ -15263,7 +15263,7 @@
         <x:v>180.80000000000001</x:v>
       </x:c>
       <x:c r="BC73" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="BD73" s="1">
         <x:v>55</x:v>
@@ -15292,7 +15292,7 @@
         <x:v>44514</x:v>
       </x:c>
       <x:c r="B74" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C74" s="1">
         <x:v>7</x:v>
@@ -15319,7 +15319,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L74" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="M74" s="1">
         <x:v>6</x:v>
@@ -15448,7 +15448,7 @@
         <x:v>181.69999999999999</x:v>
       </x:c>
       <x:c r="BC74" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="BD74" s="1">
         <x:v>18</x:v>
@@ -15477,7 +15477,7 @@
         <x:v>44714</x:v>
       </x:c>
       <x:c r="B75" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C75" s="1">
         <x:v>7</x:v>
@@ -15507,7 +15507,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L75" s="6" t="s">
-        <x:v>124</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="M75" s="1">
         <x:v>8</x:v>
@@ -15636,7 +15636,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC75" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="BD75" s="1">
         <x:v>8</x:v>
@@ -15665,7 +15665,7 @@
         <x:v>44717</x:v>
       </x:c>
       <x:c r="B76" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C76" s="1">
         <x:v>7</x:v>
@@ -15686,16 +15686,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I76" s="6" t="s">
-        <x:v>162</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J76" s="6" t="s">
-        <x:v>156</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K76" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L76" s="6" t="s">
-        <x:v>114</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="M76" s="1">
         <x:v>7</x:v>
@@ -15824,7 +15824,7 @@
         <x:v>181.90000000000001</x:v>
       </x:c>
       <x:c r="BC76" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="BD76" s="1">
         <x:v>33</x:v>
@@ -15853,7 +15853,7 @@
         <x:v>44721</x:v>
       </x:c>
       <x:c r="B77" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C77" s="1">
         <x:v>7</x:v>
@@ -15880,7 +15880,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L77" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="M77" s="1">
         <x:v>6</x:v>
@@ -16009,7 +16009,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="BC77" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="BD77" s="1">
         <x:v>14</x:v>
@@ -16038,7 +16038,7 @@
         <x:v>44724</x:v>
       </x:c>
       <x:c r="B78" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C78" s="1">
         <x:v>7</x:v>
@@ -16059,13 +16059,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I78" s="6" t="s">
-        <x:v>166</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K78" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L78" s="6" t="s">
-        <x:v>127</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M78" s="1">
         <x:v>9</x:v>
@@ -16194,7 +16194,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="BC78" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="BD78" s="1">
         <x:v>33</x:v>
@@ -16223,7 +16223,7 @@
         <x:v>44828</x:v>
       </x:c>
       <x:c r="B79" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C79" s="1">
         <x:v>7</x:v>
@@ -16247,13 +16247,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="J79" s="6" t="s">
-        <x:v>181</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K79" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L79" s="6" t="s">
-        <x:v>121</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="M79" s="1">
         <x:v>7</x:v>
@@ -16382,7 +16382,7 @@
         <x:v>181.80000000000001</x:v>
       </x:c>
       <x:c r="BC79" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="BD79" s="1">
         <x:v>16</x:v>
@@ -16411,7 +16411,7 @@
         <x:v>44831</x:v>
       </x:c>
       <x:c r="B80" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C80" s="1">
         <x:v>7</x:v>
@@ -16438,7 +16438,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L80" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="M80" s="1">
         <x:v>9</x:v>
@@ -16567,7 +16567,7 @@
         <x:v>181.19999999999999</x:v>
       </x:c>
       <x:c r="BC80" s="6" t="s">
-        <x:v>215</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="BD80" s="1">
         <x:v>9</x:v>
@@ -16596,7 +16596,7 @@
         <x:v>44280</x:v>
       </x:c>
       <x:c r="B81" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C81" s="9">
         <x:v>5</x:v>
@@ -16617,14 +16617,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I81" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J81" s="9"/>
       <x:c r="K81" s="9">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L81" s="9" t="s">
-        <x:v>174</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M81" s="9">
         <x:v>26</x:v>
@@ -16753,7 +16753,7 @@
         <x:v>182.59999999999999</x:v>
       </x:c>
       <x:c r="BC81" s="9" t="s">
-        <x:v>180</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="BD81" s="9">
         <x:v>210</x:v>
@@ -16782,7 +16782,7 @@
         <x:v>44283</x:v>
       </x:c>
       <x:c r="B82" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C82" s="9">
         <x:v>5</x:v>
@@ -16803,14 +16803,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I82" s="9" t="s">
-        <x:v>177</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J82" s="9"/>
       <x:c r="K82" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="L82" s="9" t="s">
-        <x:v>169</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M82" s="9">
         <x:v>7</x:v>
@@ -16939,7 +16939,7 @@
         <x:v>182.69999999999999</x:v>
       </x:c>
       <x:c r="BC82" s="9" t="s">
-        <x:v>158</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="BD82" s="9">
         <x:v>65</x:v>
@@ -16968,7 +16968,7 @@
         <x:v>44286</x:v>
       </x:c>
       <x:c r="B83" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C83" s="9">
         <x:v>5</x:v>
@@ -16989,7 +16989,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I83" s="9" t="s">
-        <x:v>170</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J83" s="9">
         <x:v>58</x:v>
@@ -16998,7 +16998,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L83" s="9" t="s">
-        <x:v>126</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="M83" s="9">
         <x:v>6</x:v>
@@ -17127,7 +17127,7 @@
         <x:v>183.5</x:v>
       </x:c>
       <x:c r="BC83" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="BD83" s="9">
         <x:v>28</x:v>
@@ -17156,7 +17156,7 @@
         <x:v>44360</x:v>
       </x:c>
       <x:c r="B84" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C84" s="1">
         <x:v>4</x:v>
@@ -17183,7 +17183,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L84" s="6" t="s">
-        <x:v>122</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="M84" s="1">
         <x:v>3</x:v>
@@ -17312,7 +17312,7 @@
         <x:v>181.80000000000001</x:v>
       </x:c>
       <x:c r="BC84" s="6" t="s">
-        <x:v>171</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="BD84" s="1">
         <x:v>15</x:v>
@@ -17341,7 +17341,7 @@
         <x:v>44365</x:v>
       </x:c>
       <x:c r="B85" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C85" s="1">
         <x:v>4</x:v>
@@ -17365,7 +17365,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L85" s="6" t="s">
-        <x:v>186</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M85" s="1">
         <x:v>8</x:v>
@@ -17494,7 +17494,7 @@
         <x:v>182.80000000000001</x:v>
       </x:c>
       <x:c r="BC85" s="6" t="s">
-        <x:v>167</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="BD85" s="1">
         <x:v>44</x:v>
@@ -17523,7 +17523,7 @@
         <x:v>44369</x:v>
       </x:c>
       <x:c r="B86" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C86" s="1">
         <x:v>4</x:v>
@@ -17550,7 +17550,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L86" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M86" s="1">
         <x:v>4</x:v>
@@ -17679,7 +17679,7 @@
         <x:v>182.40000000000001</x:v>
       </x:c>
       <x:c r="BC86" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="BD86" s="1">
         <x:v>40</x:v>
@@ -17708,7 +17708,7 @@
         <x:v>44376</x:v>
       </x:c>
       <x:c r="B87" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C87" s="1">
         <x:v>4</x:v>
@@ -17729,13 +17729,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I87" s="6" t="s">
-        <x:v>195</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K87" s="1">
         <x:v>2</x:v>
       </x:c>
       <x:c r="L87" s="6" t="s">
-        <x:v>200</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M87" s="1">
         <x:v>3</x:v>
@@ -17864,7 +17864,7 @@
         <x:v>182.59999999999999</x:v>
       </x:c>
       <x:c r="BC87" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="BD87" s="1">
         <x:v>12</x:v>
@@ -17893,7 +17893,7 @@
         <x:v>44380</x:v>
       </x:c>
       <x:c r="B88" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C88" s="1">
         <x:v>4</x:v>
@@ -17914,13 +17914,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I88" s="6" t="s">
-        <x:v>118</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="K88" s="1">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L88" s="6" t="s">
-        <x:v>119</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="M88" s="1">
         <x:v>6</x:v>
@@ -18049,7 +18049,7 @@
         <x:v>182.40000000000001</x:v>
       </x:c>
       <x:c r="BC88" s="6" t="s">
-        <x:v>254</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="BD88" s="1">
         <x:v>24</x:v>
@@ -18078,7 +18078,7 @@
         <x:v>44384</x:v>
       </x:c>
       <x:c r="B89" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C89" s="1">
         <x:v>4</x:v>
@@ -18105,7 +18105,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L89" s="6" t="s">
-        <x:v>125</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="M89" s="1">
         <x:v>10</x:v>
@@ -18234,7 +18234,7 @@
         <x:v>182.90000000000001</x:v>
       </x:c>
       <x:c r="BC89" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="BD89" s="1">
         <x:v>10</x:v>
@@ -18263,7 +18263,7 @@
         <x:v>44388</x:v>
       </x:c>
       <x:c r="B90" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C90" s="1">
         <x:v>4</x:v>
@@ -18293,7 +18293,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L90" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M90" s="1">
         <x:v>5</x:v>
@@ -18422,7 +18422,7 @@
         <x:v>182.90000000000001</x:v>
       </x:c>
       <x:c r="BC90" s="6" t="s">
-        <x:v>224</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="BD90" s="1">
         <x:v>7</x:v>
@@ -18451,7 +18451,7 @@
         <x:v>44441</x:v>
       </x:c>
       <x:c r="B91" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C91" s="9">
         <x:v>4</x:v>
@@ -18472,14 +18472,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I91" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="J91" s="9"/>
       <x:c r="K91" s="9">
         <x:v>3</x:v>
       </x:c>
       <x:c r="L91" s="9" t="s">
-        <x:v>103</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="M91" s="9">
         <x:v>9</x:v>
@@ -18608,7 +18608,7 @@
         <x:v>182.59999999999999</x:v>
       </x:c>
       <x:c r="BC91" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="BD91" s="9">
         <x:v>39</x:v>
@@ -18637,7 +18637,7 @@
         <x:v>44444</x:v>
       </x:c>
       <x:c r="B92" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C92" s="9">
         <x:v>4</x:v>
@@ -18658,7 +18658,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I92" s="9" t="s">
-        <x:v>99</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="J92" s="9"/>
       <x:c r="K92" s="9">
@@ -18794,7 +18794,7 @@
         <x:v>182.5</x:v>
       </x:c>
       <x:c r="BC92" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="BD92" s="9">
         <x:v>155</x:v>
@@ -18823,7 +18823,7 @@
         <x:v>44447</x:v>
       </x:c>
       <x:c r="B93" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C93" s="9">
         <x:v>4</x:v>
@@ -18853,7 +18853,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L93" s="9" t="s">
-        <x:v>163</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M93" s="9">
         <x:v>9</x:v>
@@ -18982,7 +18982,7 @@
         <x:v>182.59999999999999</x:v>
       </x:c>
       <x:c r="BC93" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="BD93" s="9">
         <x:v>24</x:v>
@@ -19011,7 +19011,7 @@
         <x:v>44478</x:v>
       </x:c>
       <x:c r="B94" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C94" s="9">
         <x:v>5</x:v>
@@ -19032,14 +19032,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I94" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J94" s="9"/>
       <x:c r="K94" s="9">
         <x:v>3</x:v>
       </x:c>
       <x:c r="L94" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="M94" s="9">
         <x:v>12</x:v>
@@ -19168,7 +19168,7 @@
         <x:v>181.30000000000001</x:v>
       </x:c>
       <x:c r="BC94" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="BD94" s="9">
         <x:v>153</x:v>
@@ -19197,7 +19197,7 @@
         <x:v>44481</x:v>
       </x:c>
       <x:c r="B95" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C95" s="9">
         <x:v>5</x:v>
@@ -19227,7 +19227,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L95" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="M95" s="9">
         <x:v>5</x:v>
@@ -19356,7 +19356,7 @@
         <x:v>183.19999999999999</x:v>
       </x:c>
       <x:c r="BC95" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="BD95" s="9">
         <x:v>43</x:v>
@@ -19385,7 +19385,7 @@
         <x:v>44512</x:v>
       </x:c>
       <x:c r="B96" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C96" s="9">
         <x:v>4</x:v>
@@ -19406,14 +19406,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I96" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="J96" s="9"/>
       <x:c r="K96" s="9">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L96" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="M96" s="9">
         <x:v>11</x:v>
@@ -19542,7 +19542,7 @@
         <x:v>181.09999999999999</x:v>
       </x:c>
       <x:c r="BC96" s="9" t="s">
-        <x:v>158</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="BD96" s="9">
         <x:v>66</x:v>
@@ -19571,7 +19571,7 @@
         <x:v>44515</x:v>
       </x:c>
       <x:c r="B97" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C97" s="9">
         <x:v>4</x:v>
@@ -19592,14 +19592,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I97" s="9" t="s">
-        <x:v>155</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J97" s="9"/>
       <x:c r="K97" s="9">
         <x:v>5</x:v>
       </x:c>
       <x:c r="L97" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="M97" s="9">
         <x:v>16</x:v>
@@ -19728,7 +19728,7 @@
         <x:v>182.5</x:v>
       </x:c>
       <x:c r="BC97" s="9" t="s">
-        <x:v>180</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="BD97" s="9">
         <x:v>210</x:v>
@@ -19757,7 +19757,7 @@
         <x:v>44716</x:v>
       </x:c>
       <x:c r="B98" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C98" s="1">
         <x:v>5</x:v>
@@ -19784,7 +19784,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L98" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="M98" s="1">
         <x:v>8</x:v>
@@ -19913,7 +19913,7 @@
         <x:v>182.59999999999999</x:v>
       </x:c>
       <x:c r="BC98" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="BD98" s="1">
         <x:v>37</x:v>
@@ -19942,7 +19942,7 @@
         <x:v>44719</x:v>
       </x:c>
       <x:c r="B99" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C99" s="1">
         <x:v>5</x:v>
@@ -19972,7 +19972,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L99" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="M99" s="1">
         <x:v>8</x:v>
@@ -20101,7 +20101,7 @@
         <x:v>182.09999999999999</x:v>
       </x:c>
       <x:c r="BC99" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="BD99" s="1">
         <x:v>2</x:v>
@@ -20130,7 +20130,7 @@
         <x:v>44723</x:v>
       </x:c>
       <x:c r="B100" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C100" s="1">
         <x:v>5</x:v>
@@ -20154,7 +20154,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L100" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="M100" s="1">
         <x:v>10</x:v>
@@ -20283,7 +20283,7 @@
         <x:v>183.5</x:v>
       </x:c>
       <x:c r="BC100" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="BD100" s="1">
         <x:v>7</x:v>
@@ -20312,7 +20312,7 @@
         <x:v>44726</x:v>
       </x:c>
       <x:c r="B101" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C101" s="1">
         <x:v>5</x:v>
@@ -20333,13 +20333,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J101" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K101" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L101" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="M101" s="1">
         <x:v>7</x:v>
@@ -20468,7 +20468,7 @@
         <x:v>180.30000000000001</x:v>
       </x:c>
       <x:c r="BC101" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="BD101" s="1">
         <x:v>37</x:v>
@@ -20497,7 +20497,7 @@
         <x:v>44827</x:v>
       </x:c>
       <x:c r="B102" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C102" s="1">
         <x:v>5</x:v>
@@ -20653,7 +20653,7 @@
         <x:v>183.59999999999999</x:v>
       </x:c>
       <x:c r="BC102" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="BD102" s="1">
         <x:v>7</x:v>
@@ -20682,7 +20682,7 @@
         <x:v>44830</x:v>
       </x:c>
       <x:c r="B103" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C103" s="1">
         <x:v>5</x:v>
@@ -20703,16 +20703,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I103" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="J103" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K103" s="1">
         <x:v>4</x:v>
       </x:c>
       <x:c r="L103" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="M103" s="1">
         <x:v>5</x:v>
@@ -20841,7 +20841,7 @@
         <x:v>184.80000000000001</x:v>
       </x:c>
       <x:c r="BC103" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="BD103" s="1">
         <x:v>11</x:v>
